--- a/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
+++ b/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4674EF39-CE41-4A69-9BA1-9495A59F7C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697B456-FFEB-48A1-B69A-32FAF35B6EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ИсходныеДанные!$A$1:$AH$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Отчет!$C$8:$O$40</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
   <si>
     <t>I</t>
   </si>
@@ -333,6 +333,30 @@
   </si>
   <si>
     <t>AL</t>
+  </si>
+  <si>
+    <t>pVacasia</t>
+  </si>
+  <si>
+    <t>Northern</t>
+  </si>
+  <si>
+    <t>JustUserName</t>
+  </si>
+  <si>
+    <t>UserHourCost</t>
+  </si>
+  <si>
+    <t>UserMonthCost</t>
+  </si>
+  <si>
+    <t>Personal_email</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>boss_email</t>
   </si>
 </sst>
 </file>
@@ -5138,12 +5162,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AT1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5189,7 +5213,7 @@
     <col min="39" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
@@ -5303,6 +5327,30 @@
       </c>
       <c r="AL1" s="23" t="s">
         <v>95</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
+++ b/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697B456-FFEB-48A1-B69A-32FAF35B6EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8645EF00-EA38-4873-BE02-7DD39F7E0CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,10 @@
   </sheets>
   <definedNames>
     <definedName name="_ВозможныеСписки">Настройки!$A$1:$A$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ИсходныеДанные!$A$1:$AH$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ИсходныеДанные!$A$1:$AT$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Отчет!$C$8:$O$40</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5167,7 +5167,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" sqref="A1:AT1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5354,7 +5354,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:AT1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>

--- a/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
+++ b/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8645EF00-EA38-4873-BE02-7DD39F7E0CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1EA983-E197-412E-BFC1-7BB4E0D73F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_ВозможныеСписки">Настройки!$A$1:$A$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ИсходныеДанные!$A$1:$AT$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ИсходныеДанные!$A$1:$AW$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Отчет!$C$8:$O$40</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
   <si>
     <t>I</t>
   </si>
@@ -357,6 +357,15 @@
   </si>
   <si>
     <t>boss_email</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Portfolio_Month</t>
   </si>
 </sst>
 </file>
@@ -366,12 +375,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -830,63 +847,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -895,51 +908,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="3" xr:uid="{EFF7D292-CBB7-4CD1-80C1-89EF1C4E0CDA}"/>
+    <cellStyle name="Процентный 2" xfId="2" xr:uid="{CA0C4F83-F3A6-4F97-961E-8EBC3C4E1503}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2843,7 +2864,7 @@
       <c r="B1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="8">
@@ -2900,7 +2921,7 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="7">
@@ -2962,18 +2983,18 @@
       <c r="A4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="16" t="str">
+      <c r="B4" s="15" t="str">
         <f>VLOOKUP(УникальныеСписки!A1,Настройки!A1:D50,3,FALSE)</f>
         <v>G</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="31" t="str">
+      <c r="D4" s="29" t="str">
         <f>VLOOKUP(УникальныеСписки!A1,Настройки!A1:D50,4,FALSE)</f>
         <v>AB</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <f>ROW(B9)-2</f>
         <v>7</v>
       </c>
@@ -2983,26 +3004,26 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3010,42 +3031,42 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="40" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="38" t="s">
         <v>16</v>
       </c>
       <c r="P6" s="3"/>
@@ -3055,20 +3076,20 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3076,8 +3097,8 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -3097,15 +3118,15 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <f t="array" aca="1" ref="B9" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="27" t="str">
+      <c r="C9" s="25" t="str">
         <f t="array" aca="1" ref="C9" ca="1">_xlfn.XLOOKUP($B9,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <f ca="1">IF($B9&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B9&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3160,15 +3181,15 @@
         <f t="shared" ref="A10:A40" ca="1" si="2">IF(C10="","delete","")</f>
         <v>delete</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <f t="array" aca="1" ref="B10" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="27" t="str">
+      <c r="C10" s="25" t="str">
         <f t="array" aca="1" ref="C10" ca="1">_xlfn.XLOOKUP($B10,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="27">
         <f ca="1">IF($B10&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B10&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3223,15 +3244,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <f t="array" aca="1" ref="B11" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="25" t="str">
         <f t="array" aca="1" ref="C11" ca="1">_xlfn.XLOOKUP($B11,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="27">
         <f ca="1">IF($B11&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B11&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3286,15 +3307,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f t="array" aca="1" ref="B12" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="25" t="str">
         <f t="array" aca="1" ref="C12" ca="1">_xlfn.XLOOKUP($B12,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <f ca="1">IF($B12&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B12&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3349,15 +3370,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <f t="array" aca="1" ref="B13" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="25" t="str">
         <f t="array" aca="1" ref="C13" ca="1">_xlfn.XLOOKUP($B13,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="27">
         <f ca="1">IF($B13&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B13&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3412,15 +3433,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <f t="array" aca="1" ref="B14" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="25" t="str">
         <f t="array" aca="1" ref="C14" ca="1">_xlfn.XLOOKUP($B14,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="27">
         <f ca="1">IF($B14&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B14&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3475,15 +3496,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <f t="array" aca="1" ref="B15" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="25" t="str">
         <f t="array" aca="1" ref="C15" ca="1">_xlfn.XLOOKUP($B15,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="27">
         <f ca="1">IF($B15&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B15&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3538,15 +3559,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <f t="array" aca="1" ref="B16" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="25" t="str">
         <f t="array" aca="1" ref="C16" ca="1">_xlfn.XLOOKUP($B16,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="27">
         <f ca="1">IF($B16&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B16&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3601,15 +3622,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <f t="array" aca="1" ref="B17" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="25" t="str">
         <f t="array" aca="1" ref="C17" ca="1">_xlfn.XLOOKUP($B17,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="27">
         <f ca="1">IF($B17&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B17&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3664,15 +3685,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <f t="array" aca="1" ref="B18" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="27" t="str">
+      <c r="C18" s="25" t="str">
         <f t="array" aca="1" ref="C18" ca="1">_xlfn.XLOOKUP($B18,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="27">
         <f ca="1">IF($B18&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B18&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3727,15 +3748,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <f t="array" aca="1" ref="B19" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="25" t="str">
         <f t="array" aca="1" ref="C19" ca="1">_xlfn.XLOOKUP($B19,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="27">
         <f ca="1">IF($B19&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B19&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3790,15 +3811,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <f t="array" aca="1" ref="B20" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="25" t="str">
         <f t="array" aca="1" ref="C20" ca="1">_xlfn.XLOOKUP($B20,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="27">
         <f ca="1">IF($B20&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B20&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3853,15 +3874,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <f t="array" aca="1" ref="B21" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="27" t="str">
+      <c r="C21" s="25" t="str">
         <f t="array" aca="1" ref="C21" ca="1">_xlfn.XLOOKUP($B21,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="27">
         <f ca="1">IF($B21&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B21&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3916,15 +3937,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <f t="array" aca="1" ref="B22" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="27" t="str">
+      <c r="C22" s="25" t="str">
         <f t="array" aca="1" ref="C22" ca="1">_xlfn.XLOOKUP($B22,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="27">
         <f ca="1">IF($B22&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B22&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -3979,15 +4000,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <f t="array" aca="1" ref="B23" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="27" t="str">
+      <c r="C23" s="25" t="str">
         <f t="array" aca="1" ref="C23" ca="1">_xlfn.XLOOKUP($B23,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="27">
         <f ca="1">IF($B23&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B23&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4042,15 +4063,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <f t="array" aca="1" ref="B24" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="27" t="str">
+      <c r="C24" s="25" t="str">
         <f t="array" aca="1" ref="C24" ca="1">_xlfn.XLOOKUP($B24,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="27">
         <f ca="1">IF($B24&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B24&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4105,15 +4126,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <f t="array" aca="1" ref="B25" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="25" t="str">
         <f t="array" aca="1" ref="C25" ca="1">_xlfn.XLOOKUP($B25,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="27">
         <f ca="1">IF($B25&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B25&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4168,15 +4189,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <f t="array" aca="1" ref="B26" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="27" t="str">
+      <c r="C26" s="25" t="str">
         <f t="array" aca="1" ref="C26" ca="1">_xlfn.XLOOKUP($B26,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="27">
         <f ca="1">IF($B26&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B26&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4231,15 +4252,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <f t="array" aca="1" ref="B27" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="27" t="str">
+      <c r="C27" s="25" t="str">
         <f t="array" aca="1" ref="C27" ca="1">_xlfn.XLOOKUP($B27,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="27">
         <f ca="1">IF($B27&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B27&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4294,15 +4315,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <f t="array" aca="1" ref="B28" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="27" t="str">
+      <c r="C28" s="25" t="str">
         <f t="array" aca="1" ref="C28" ca="1">_xlfn.XLOOKUP($B28,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="27">
         <f ca="1">IF($B28&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B28&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4357,15 +4378,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <f t="array" aca="1" ref="B29" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="27" t="str">
+      <c r="C29" s="25" t="str">
         <f t="array" aca="1" ref="C29" ca="1">_xlfn.XLOOKUP($B29,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="27">
         <f ca="1">IF($B29&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B29&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4420,15 +4441,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <f t="array" aca="1" ref="B30" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="27" t="str">
+      <c r="C30" s="25" t="str">
         <f t="array" aca="1" ref="C30" ca="1">_xlfn.XLOOKUP($B30,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="27">
         <f ca="1">IF($B30&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B30&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4483,15 +4504,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <f t="array" aca="1" ref="B31" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="27" t="str">
+      <c r="C31" s="25" t="str">
         <f t="array" aca="1" ref="C31" ca="1">_xlfn.XLOOKUP($B31,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="27">
         <f ca="1">IF($B31&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B31&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4546,15 +4567,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <f t="array" aca="1" ref="B32" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="27" t="str">
+      <c r="C32" s="25" t="str">
         <f t="array" aca="1" ref="C32" ca="1">_xlfn.XLOOKUP($B32,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="27">
         <f ca="1">IF($B32&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B32&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4609,15 +4630,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <f t="array" aca="1" ref="B33" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C33" s="27" t="str">
+      <c r="C33" s="25" t="str">
         <f t="array" aca="1" ref="C33" ca="1">_xlfn.XLOOKUP($B33,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="27">
         <f ca="1">IF($B33&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B33&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4672,15 +4693,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <f t="array" aca="1" ref="B34" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="27" t="str">
+      <c r="C34" s="25" t="str">
         <f t="array" aca="1" ref="C34" ca="1">_xlfn.XLOOKUP($B34,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="27">
         <f ca="1">IF($B34&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B34&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4735,15 +4756,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <f t="array" aca="1" ref="B35" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="27" t="str">
+      <c r="C35" s="25" t="str">
         <f t="array" aca="1" ref="C35" ca="1">_xlfn.XLOOKUP($B35,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="27">
         <f ca="1">IF($B35&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B35&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4798,15 +4819,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <f t="array" aca="1" ref="B36" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="27" t="str">
+      <c r="C36" s="25" t="str">
         <f t="array" aca="1" ref="C36" ca="1">_xlfn.XLOOKUP($B36,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="27">
         <f ca="1">IF($B36&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B36&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4861,15 +4882,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <f t="array" aca="1" ref="B37" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="27" t="str">
+      <c r="C37" s="25" t="str">
         <f t="array" aca="1" ref="C37" ca="1">_xlfn.XLOOKUP($B37,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="27">
         <f ca="1">IF($B37&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B37&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4924,15 +4945,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <f t="array" aca="1" ref="B38" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C38" s="27" t="str">
+      <c r="C38" s="25" t="str">
         <f t="array" aca="1" ref="C38" ca="1">_xlfn.XLOOKUP($B38,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="27">
         <f ca="1">IF($B38&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B38&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -4987,15 +5008,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <f t="array" aca="1" ref="B39" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C39" s="27" t="str">
+      <c r="C39" s="25" t="str">
         <f t="array" aca="1" ref="C39" ca="1">_xlfn.XLOOKUP($B39,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="27">
         <f ca="1">IF($B39&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B39&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -5050,15 +5071,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>delete</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <f t="array" aca="1" ref="B40" ca="1">INDIRECT("УникальныеСписки!A"&amp;ROW()-$E$4)</f>
         <v>0</v>
       </c>
-      <c r="C40" s="27" t="str">
+      <c r="C40" s="25" t="str">
         <f t="array" aca="1" ref="C40" ca="1">_xlfn.XLOOKUP($B40,INDIRECT(SUBSTITUTE("ИсходныеДанные!$где$2:$где$50000","где",$B$4)),INDIRECT(SUBSTITUTE("ИсходныеДанные!$что$2:$что$50000","что",C$4)),"",0,1)</f>
         <v/>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="28">
         <f ca="1">IF($B40&lt;&gt;"",SUMIF(INDIRECT("ИсходныеДанные!$"&amp;$D$4&amp;"$2:$"&amp;$D$4&amp;"$50000"),Отчет!$B40&amp;"#"&amp;Отчет!D$6,INDIRECT("ИсходныеДанные!$K$2:$K$50000")),0)</f>
         <v>0</v>
       </c>
@@ -5162,12 +5183,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:AT1"/>
+  <dimension ref="A1:AW1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5213,148 +5234,157 @@
     <col min="39" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AG1" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AH1" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AI1" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AJ1" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AK1" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AL1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AM1" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AN1" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="AO1" s="23" t="s">
+      <c r="AO1" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="AP1" s="23" t="s">
+      <c r="AP1" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="AQ1" s="23" t="s">
+      <c r="AQ1" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="AR1" s="23" t="s">
+      <c r="AR1" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AS1" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="AT1" s="23" t="s">
+      <c r="AT1" s="41" t="s">
         <v>106</v>
       </c>
+      <c r="AU1" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV1" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW1" s="41" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AT1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:AW1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
@@ -5371,4274 +5401,4274 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68" style="18" customWidth="1"/>
+    <col min="1" max="1" width="68" style="17" customWidth="1"/>
     <col min="2" max="2" width="59.7109375" style="11" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="11" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="19" t="str">
+      <c r="B1" s="18" t="str">
         <f>VLOOKUP(A1,Настройки!A1:B37,2,FALSE)</f>
         <v>Тип проекта</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+      <c r="A2" s="24"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="24"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="24"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="24"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="24"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="24"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="24"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="24"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="24"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="23"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="23"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="23"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="23"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
+      <c r="A29" s="23"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="A32" s="23"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="23"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="23"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="23"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
+      <c r="A36" s="23"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+      <c r="A37" s="23"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
+      <c r="A39" s="23"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
+      <c r="A40" s="23"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
+      <c r="A41" s="23"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+      <c r="A42" s="23"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="23"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="23"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
+      <c r="A47" s="23"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+      <c r="A50" s="23"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
+      <c r="A51" s="23"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
+      <c r="A55" s="23"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
+      <c r="A56" s="23"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
+      <c r="A57" s="23"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
+      <c r="A58" s="23"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
+      <c r="A59" s="23"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
+      <c r="A60" s="23"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
+      <c r="A61" s="23"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
+      <c r="A62" s="23"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
+      <c r="A63" s="23"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
+      <c r="A64" s="23"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
+      <c r="A65" s="23"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
+      <c r="A66" s="23"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="25"/>
+      <c r="A67" s="23"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
+      <c r="A68" s="23"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
+      <c r="A69" s="23"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="25"/>
+      <c r="A70" s="23"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
+      <c r="A71" s="23"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
+      <c r="A72" s="23"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
+      <c r="A73" s="23"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
+      <c r="A74" s="23"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
+      <c r="A75" s="23"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
+      <c r="A76" s="23"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
+      <c r="A77" s="23"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
+      <c r="A78" s="23"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
+      <c r="A79" s="23"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
+      <c r="A80" s="23"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
+      <c r="A81" s="23"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
+      <c r="A82" s="23"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
+      <c r="A83" s="23"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
+      <c r="A84" s="23"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
+      <c r="A85" s="23"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
+      <c r="A86" s="23"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
+      <c r="A87" s="23"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
+      <c r="A88" s="23"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
+      <c r="A89" s="23"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
+      <c r="A90" s="23"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
+      <c r="A91" s="23"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
+      <c r="A92" s="23"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
+      <c r="A93" s="23"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
+      <c r="A94" s="23"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
+      <c r="A95" s="23"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
+      <c r="A96" s="23"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
+      <c r="A97" s="23"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
+      <c r="A98" s="23"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
+      <c r="A99" s="23"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
+      <c r="A100" s="23"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="25"/>
+      <c r="A101" s="23"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
+      <c r="A102" s="23"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
+      <c r="A103" s="23"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
+      <c r="A104" s="23"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
+      <c r="A105" s="23"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
+      <c r="A106" s="23"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
+      <c r="A107" s="23"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
+      <c r="A108" s="23"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
+      <c r="A109" s="23"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
+      <c r="A110" s="23"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="25"/>
+      <c r="A111" s="23"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
+      <c r="A112" s="23"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="25"/>
+      <c r="A113" s="23"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="25"/>
+      <c r="A114" s="23"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
+      <c r="A115" s="23"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
+      <c r="A116" s="23"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="25"/>
+      <c r="A117" s="23"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="25"/>
+      <c r="A118" s="23"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
+      <c r="A119" s="23"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
+      <c r="A120" s="23"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="25"/>
+      <c r="A121" s="23"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="25"/>
+      <c r="A122" s="23"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="25"/>
+      <c r="A123" s="23"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="25"/>
+      <c r="A124" s="23"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="25"/>
+      <c r="A125" s="23"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="25"/>
+      <c r="A126" s="23"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="25"/>
+      <c r="A127" s="23"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="25"/>
+      <c r="A128" s="23"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="25"/>
+      <c r="A129" s="23"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="25"/>
+      <c r="A130" s="23"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
+      <c r="A131" s="23"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="25"/>
+      <c r="A132" s="23"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="25"/>
+      <c r="A133" s="23"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="25"/>
+      <c r="A134" s="23"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="25"/>
+      <c r="A135" s="23"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="25"/>
+      <c r="A136" s="23"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="25"/>
+      <c r="A137" s="23"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="25"/>
+      <c r="A138" s="23"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="25"/>
+      <c r="A139" s="23"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="25"/>
+      <c r="A140" s="23"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="25"/>
+      <c r="A141" s="23"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="25"/>
+      <c r="A142" s="23"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="25"/>
+      <c r="A143" s="23"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="25"/>
+      <c r="A144" s="23"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="25"/>
+      <c r="A145" s="23"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="25"/>
+      <c r="A146" s="23"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="25"/>
+      <c r="A147" s="23"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="25"/>
+      <c r="A148" s="23"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="25"/>
+      <c r="A149" s="23"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="25"/>
+      <c r="A150" s="23"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="25"/>
+      <c r="A151" s="23"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="25"/>
+      <c r="A152" s="23"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="25"/>
+      <c r="A153" s="23"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="25"/>
+      <c r="A154" s="23"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="25"/>
+      <c r="A155" s="23"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="25"/>
+      <c r="A156" s="23"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="25"/>
+      <c r="A157" s="23"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="25"/>
+      <c r="A158" s="23"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="25"/>
+      <c r="A159" s="23"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="25"/>
+      <c r="A160" s="23"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="25"/>
+      <c r="A161" s="23"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="25"/>
+      <c r="A162" s="23"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="25"/>
+      <c r="A163" s="23"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="25"/>
+      <c r="A164" s="23"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="25"/>
+      <c r="A165" s="23"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="25"/>
+      <c r="A166" s="23"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="25"/>
+      <c r="A167" s="23"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="25"/>
+      <c r="A168" s="23"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="25"/>
+      <c r="A169" s="23"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="25"/>
+      <c r="A170" s="23"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="25"/>
+      <c r="A171" s="23"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="25"/>
+      <c r="A172" s="23"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="25"/>
+      <c r="A173" s="23"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="25"/>
+      <c r="A174" s="23"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="25"/>
+      <c r="A175" s="23"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="25"/>
+      <c r="A176" s="23"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="25"/>
+      <c r="A177" s="23"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="25"/>
+      <c r="A178" s="23"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="25"/>
+      <c r="A179" s="23"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="25"/>
+      <c r="A180" s="23"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="25"/>
+      <c r="A181" s="23"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="25"/>
+      <c r="A182" s="23"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="25"/>
+      <c r="A183" s="23"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="25"/>
+      <c r="A184" s="23"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="25"/>
+      <c r="A185" s="23"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="25"/>
+      <c r="A186" s="23"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="25"/>
+      <c r="A187" s="23"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="25"/>
+      <c r="A188" s="23"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="25"/>
+      <c r="A189" s="23"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="25"/>
+      <c r="A190" s="23"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="25"/>
+      <c r="A191" s="23"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="25"/>
+      <c r="A192" s="23"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="25"/>
+      <c r="A193" s="23"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="25"/>
+      <c r="A194" s="23"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="25"/>
+      <c r="A195" s="23"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="25"/>
+      <c r="A196" s="23"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="25"/>
+      <c r="A197" s="23"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="25"/>
+      <c r="A198" s="23"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="25"/>
+      <c r="A199" s="23"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="25"/>
+      <c r="A200" s="23"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="25"/>
+      <c r="A201" s="23"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="25"/>
+      <c r="A202" s="23"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="25"/>
+      <c r="A203" s="23"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="25"/>
+      <c r="A204" s="23"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="25"/>
+      <c r="A205" s="23"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="25"/>
+      <c r="A206" s="23"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="25"/>
+      <c r="A207" s="23"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="25"/>
+      <c r="A208" s="23"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="25"/>
+      <c r="A209" s="23"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="25"/>
+      <c r="A210" s="23"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="25"/>
+      <c r="A211" s="23"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="25"/>
+      <c r="A212" s="23"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="25"/>
+      <c r="A213" s="23"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="25"/>
+      <c r="A214" s="23"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="25"/>
+      <c r="A215" s="23"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="25"/>
+      <c r="A216" s="23"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="25"/>
+      <c r="A217" s="23"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="25"/>
+      <c r="A218" s="23"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="25"/>
+      <c r="A219" s="23"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="25"/>
+      <c r="A220" s="23"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="25"/>
+      <c r="A221" s="23"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="25"/>
+      <c r="A222" s="23"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="25"/>
+      <c r="A223" s="23"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="25"/>
+      <c r="A224" s="23"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="25"/>
+      <c r="A225" s="23"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="25"/>
+      <c r="A226" s="23"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="25"/>
+      <c r="A227" s="23"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="25"/>
+      <c r="A228" s="23"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="25"/>
+      <c r="A229" s="23"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="25"/>
+      <c r="A230" s="23"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="25"/>
+      <c r="A231" s="23"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="25"/>
+      <c r="A232" s="23"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="25"/>
+      <c r="A233" s="23"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="25"/>
+      <c r="A234" s="23"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="25"/>
+      <c r="A235" s="23"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="25"/>
+      <c r="A236" s="23"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="25"/>
+      <c r="A237" s="23"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="25"/>
+      <c r="A238" s="23"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="25"/>
+      <c r="A239" s="23"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="25"/>
+      <c r="A240" s="23"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="25"/>
+      <c r="A241" s="23"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="25"/>
+      <c r="A242" s="23"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="25"/>
+      <c r="A243" s="23"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="25"/>
+      <c r="A244" s="23"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="25"/>
+      <c r="A245" s="23"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="25"/>
+      <c r="A246" s="23"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="25"/>
+      <c r="A247" s="23"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="25"/>
+      <c r="A248" s="23"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="25"/>
+      <c r="A249" s="23"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="25"/>
+      <c r="A250" s="23"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="25"/>
+      <c r="A251" s="23"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="25"/>
+      <c r="A252" s="23"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="25"/>
+      <c r="A253" s="23"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="25"/>
+      <c r="A254" s="23"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="25"/>
+      <c r="A255" s="23"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="25"/>
+      <c r="A256" s="23"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="25"/>
+      <c r="A257" s="23"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="25"/>
+      <c r="A258" s="23"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="25"/>
+      <c r="A259" s="23"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="25"/>
+      <c r="A260" s="23"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="25"/>
+      <c r="A261" s="23"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="25"/>
+      <c r="A262" s="23"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="25"/>
+      <c r="A263" s="23"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="25"/>
+      <c r="A264" s="23"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="25"/>
+      <c r="A265" s="23"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="25"/>
+      <c r="A266" s="23"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="25"/>
+      <c r="A267" s="23"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="25"/>
+      <c r="A268" s="23"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="25"/>
+      <c r="A269" s="23"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="25"/>
+      <c r="A270" s="23"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="25"/>
+      <c r="A271" s="23"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="25"/>
+      <c r="A272" s="23"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="25"/>
+      <c r="A273" s="23"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="25"/>
+      <c r="A274" s="23"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="25"/>
+      <c r="A275" s="23"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="25"/>
+      <c r="A276" s="23"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="25"/>
+      <c r="A277" s="23"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="25"/>
+      <c r="A278" s="23"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="25"/>
+      <c r="A279" s="23"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="25"/>
+      <c r="A280" s="23"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="25"/>
+      <c r="A281" s="23"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="25"/>
+      <c r="A282" s="23"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="25"/>
+      <c r="A283" s="23"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="25"/>
+      <c r="A284" s="23"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="25"/>
+      <c r="A285" s="23"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="25"/>
+      <c r="A286" s="23"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="25"/>
+      <c r="A287" s="23"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="25"/>
+      <c r="A288" s="23"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="25"/>
+      <c r="A289" s="23"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="25"/>
+      <c r="A290" s="23"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="25"/>
+      <c r="A291" s="23"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="25"/>
+      <c r="A292" s="23"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="25"/>
+      <c r="A293" s="23"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="25"/>
+      <c r="A294" s="23"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="25"/>
+      <c r="A295" s="23"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="25"/>
+      <c r="A296" s="23"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="25"/>
+      <c r="A297" s="23"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="25"/>
+      <c r="A298" s="23"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="25"/>
+      <c r="A299" s="23"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="25"/>
+      <c r="A300" s="23"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="25"/>
+      <c r="A301" s="23"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="25"/>
+      <c r="A302" s="23"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="25"/>
+      <c r="A303" s="23"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="25"/>
+      <c r="A304" s="23"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="25"/>
+      <c r="A305" s="23"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="25"/>
+      <c r="A306" s="23"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="25"/>
+      <c r="A307" s="23"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="25"/>
+      <c r="A308" s="23"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="25"/>
+      <c r="A309" s="23"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="25"/>
+      <c r="A310" s="23"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="25"/>
+      <c r="A311" s="23"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="25"/>
+      <c r="A312" s="23"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="25"/>
+      <c r="A313" s="23"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="25"/>
+      <c r="A314" s="23"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="25"/>
+      <c r="A315" s="23"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="25"/>
+      <c r="A316" s="23"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="25"/>
+      <c r="A317" s="23"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="25"/>
+      <c r="A318" s="23"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="25"/>
+      <c r="A319" s="23"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="25"/>
+      <c r="A320" s="23"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="25"/>
+      <c r="A321" s="23"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="25"/>
+      <c r="A322" s="23"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="25"/>
+      <c r="A323" s="23"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="25"/>
+      <c r="A324" s="23"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="25"/>
+      <c r="A325" s="23"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="25"/>
+      <c r="A326" s="23"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="25"/>
+      <c r="A327" s="23"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="25"/>
+      <c r="A328" s="23"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="25"/>
+      <c r="A329" s="23"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="25"/>
+      <c r="A330" s="23"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="25"/>
+      <c r="A331" s="23"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="25"/>
+      <c r="A332" s="23"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="25"/>
+      <c r="A333" s="23"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="25"/>
+      <c r="A334" s="23"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="25"/>
+      <c r="A335" s="23"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="25"/>
+      <c r="A336" s="23"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="25"/>
+      <c r="A337" s="23"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="25"/>
+      <c r="A338" s="23"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="25"/>
+      <c r="A339" s="23"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="25"/>
+      <c r="A340" s="23"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="25"/>
+      <c r="A341" s="23"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="25"/>
+      <c r="A342" s="23"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="25"/>
+      <c r="A343" s="23"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="25"/>
+      <c r="A344" s="23"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="25"/>
+      <c r="A345" s="23"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="25"/>
+      <c r="A346" s="23"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="25"/>
+      <c r="A347" s="23"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="25"/>
+      <c r="A348" s="23"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="25"/>
+      <c r="A349" s="23"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="25"/>
+      <c r="A350" s="23"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="25"/>
+      <c r="A351" s="23"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="25"/>
+      <c r="A352" s="23"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="25"/>
+      <c r="A353" s="23"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="25"/>
+      <c r="A354" s="23"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="25"/>
+      <c r="A355" s="23"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="25"/>
+      <c r="A356" s="23"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="25"/>
+      <c r="A357" s="23"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="25"/>
+      <c r="A358" s="23"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="25"/>
+      <c r="A359" s="23"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="25"/>
+      <c r="A360" s="23"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="25"/>
+      <c r="A361" s="23"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="25"/>
+      <c r="A362" s="23"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="25"/>
+      <c r="A363" s="23"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="25"/>
+      <c r="A364" s="23"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="25"/>
+      <c r="A365" s="23"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="25"/>
+      <c r="A366" s="23"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="25"/>
+      <c r="A367" s="23"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="25"/>
+      <c r="A368" s="23"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="25"/>
+      <c r="A369" s="23"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="25"/>
+      <c r="A370" s="23"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="25"/>
+      <c r="A371" s="23"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="25"/>
+      <c r="A372" s="23"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="25"/>
+      <c r="A373" s="23"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="25"/>
+      <c r="A374" s="23"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="25"/>
+      <c r="A375" s="23"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="25"/>
+      <c r="A376" s="23"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="25"/>
+      <c r="A377" s="23"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="25"/>
+      <c r="A378" s="23"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="25"/>
+      <c r="A379" s="23"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="25"/>
+      <c r="A380" s="23"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="25"/>
+      <c r="A381" s="23"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="25"/>
+      <c r="A382" s="23"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="25"/>
+      <c r="A383" s="23"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="25"/>
+      <c r="A384" s="23"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="25"/>
+      <c r="A385" s="23"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="25"/>
+      <c r="A386" s="23"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="25"/>
+      <c r="A387" s="23"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="25"/>
+      <c r="A388" s="23"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="25"/>
+      <c r="A389" s="23"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="25"/>
+      <c r="A390" s="23"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="25"/>
+      <c r="A391" s="23"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="25"/>
+      <c r="A392" s="23"/>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="25"/>
+      <c r="A393" s="23"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="25"/>
+      <c r="A394" s="23"/>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="25"/>
+      <c r="A395" s="23"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="25"/>
+      <c r="A396" s="23"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="25"/>
+      <c r="A397" s="23"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="25"/>
+      <c r="A398" s="23"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="25"/>
+      <c r="A399" s="23"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="25"/>
+      <c r="A400" s="23"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="25"/>
+      <c r="A401" s="23"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="25"/>
+      <c r="A402" s="23"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="25"/>
+      <c r="A403" s="23"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="25"/>
+      <c r="A404" s="23"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="25"/>
+      <c r="A405" s="23"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="25"/>
+      <c r="A406" s="23"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="25"/>
+      <c r="A407" s="23"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="25"/>
+      <c r="A408" s="23"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="25"/>
+      <c r="A409" s="23"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="25"/>
+      <c r="A410" s="23"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="25"/>
+      <c r="A411" s="23"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="25"/>
+      <c r="A412" s="23"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="25"/>
+      <c r="A413" s="23"/>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="25"/>
+      <c r="A414" s="23"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="25"/>
+      <c r="A415" s="23"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="25"/>
+      <c r="A416" s="23"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="25"/>
+      <c r="A417" s="23"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="25"/>
+      <c r="A418" s="23"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="25"/>
+      <c r="A419" s="23"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="25"/>
+      <c r="A420" s="23"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="25"/>
+      <c r="A421" s="23"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="25"/>
+      <c r="A422" s="23"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="25"/>
+      <c r="A423" s="23"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="25"/>
+      <c r="A424" s="23"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="25"/>
+      <c r="A425" s="23"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="25"/>
+      <c r="A426" s="23"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="25"/>
+      <c r="A427" s="23"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="25"/>
+      <c r="A428" s="23"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="25"/>
+      <c r="A429" s="23"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="25"/>
+      <c r="A430" s="23"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="25"/>
+      <c r="A431" s="23"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="25"/>
+      <c r="A432" s="23"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="25"/>
+      <c r="A433" s="23"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="25"/>
+      <c r="A434" s="23"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="25"/>
+      <c r="A435" s="23"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="25"/>
+      <c r="A436" s="23"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="25"/>
+      <c r="A437" s="23"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="25"/>
+      <c r="A438" s="23"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="25"/>
+      <c r="A439" s="23"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="25"/>
+      <c r="A440" s="23"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="25"/>
+      <c r="A441" s="23"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="25"/>
+      <c r="A442" s="23"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="25"/>
+      <c r="A443" s="23"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="25"/>
+      <c r="A444" s="23"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="25"/>
+      <c r="A445" s="23"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="25"/>
+      <c r="A446" s="23"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="25"/>
+      <c r="A447" s="23"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="25"/>
+      <c r="A448" s="23"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="25"/>
+      <c r="A449" s="23"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="25"/>
+      <c r="A450" s="23"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="25"/>
+      <c r="A451" s="23"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="25"/>
+      <c r="A452" s="23"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="25"/>
+      <c r="A453" s="23"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="25"/>
+      <c r="A454" s="23"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="25"/>
+      <c r="A455" s="23"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="25"/>
+      <c r="A456" s="23"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="25"/>
+      <c r="A457" s="23"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="25"/>
+      <c r="A458" s="23"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="25"/>
+      <c r="A459" s="23"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="25"/>
+      <c r="A460" s="23"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="25"/>
+      <c r="A461" s="23"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="25"/>
+      <c r="A462" s="23"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="25"/>
+      <c r="A463" s="23"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="25"/>
+      <c r="A464" s="23"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="25"/>
+      <c r="A465" s="23"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="25"/>
+      <c r="A466" s="23"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="25"/>
+      <c r="A467" s="23"/>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="25"/>
+      <c r="A468" s="23"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="25"/>
+      <c r="A469" s="23"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="25"/>
+      <c r="A470" s="23"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="25"/>
+      <c r="A471" s="23"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="25"/>
+      <c r="A472" s="23"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="25"/>
+      <c r="A473" s="23"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="25"/>
+      <c r="A474" s="23"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="25"/>
+      <c r="A475" s="23"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="25"/>
+      <c r="A476" s="23"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="25"/>
+      <c r="A477" s="23"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="25"/>
+      <c r="A478" s="23"/>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="25"/>
+      <c r="A479" s="23"/>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="25"/>
+      <c r="A480" s="23"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="25"/>
+      <c r="A481" s="23"/>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="25"/>
+      <c r="A482" s="23"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="25"/>
+      <c r="A483" s="23"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="25"/>
+      <c r="A484" s="23"/>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="25"/>
+      <c r="A485" s="23"/>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="25"/>
+      <c r="A486" s="23"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="25"/>
+      <c r="A487" s="23"/>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="25"/>
+      <c r="A488" s="23"/>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="25"/>
+      <c r="A489" s="23"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="25"/>
+      <c r="A490" s="23"/>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="25"/>
+      <c r="A491" s="23"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="25"/>
+      <c r="A492" s="23"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="25"/>
+      <c r="A493" s="23"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="25"/>
+      <c r="A494" s="23"/>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="25"/>
+      <c r="A495" s="23"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="25"/>
+      <c r="A496" s="23"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="25"/>
+      <c r="A497" s="23"/>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="25"/>
+      <c r="A498" s="23"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="25"/>
+      <c r="A499" s="23"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="25"/>
+      <c r="A500" s="23"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="25"/>
+      <c r="A501" s="23"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="25"/>
+      <c r="A502" s="23"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="25"/>
+      <c r="A503" s="23"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="25"/>
+      <c r="A504" s="23"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="25"/>
+      <c r="A505" s="23"/>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="25"/>
+      <c r="A506" s="23"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="25"/>
+      <c r="A507" s="23"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="25"/>
+      <c r="A508" s="23"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="25"/>
+      <c r="A509" s="23"/>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="25"/>
+      <c r="A510" s="23"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="25"/>
+      <c r="A511" s="23"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="25"/>
+      <c r="A512" s="23"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="25"/>
+      <c r="A513" s="23"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="25"/>
+      <c r="A514" s="23"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="25"/>
+      <c r="A515" s="23"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="25"/>
+      <c r="A516" s="23"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="25"/>
+      <c r="A517" s="23"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="25"/>
+      <c r="A518" s="23"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="25"/>
+      <c r="A519" s="23"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="25"/>
+      <c r="A520" s="23"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="25"/>
+      <c r="A521" s="23"/>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="25"/>
+      <c r="A522" s="23"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="25"/>
+      <c r="A523" s="23"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="25"/>
+      <c r="A524" s="23"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="25"/>
+      <c r="A525" s="23"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="25"/>
+      <c r="A526" s="23"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="25"/>
+      <c r="A527" s="23"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="25"/>
+      <c r="A528" s="23"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="25"/>
+      <c r="A529" s="23"/>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="25"/>
+      <c r="A530" s="23"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="25"/>
+      <c r="A531" s="23"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="25"/>
+      <c r="A532" s="23"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="25"/>
+      <c r="A533" s="23"/>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="25"/>
+      <c r="A534" s="23"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="25"/>
+      <c r="A535" s="23"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="25"/>
+      <c r="A536" s="23"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="25"/>
+      <c r="A537" s="23"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="25"/>
+      <c r="A538" s="23"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="25"/>
+      <c r="A539" s="23"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="25"/>
+      <c r="A540" s="23"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="25"/>
+      <c r="A541" s="23"/>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="25"/>
+      <c r="A542" s="23"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="25"/>
+      <c r="A543" s="23"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="25"/>
+      <c r="A544" s="23"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="25"/>
+      <c r="A545" s="23"/>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="25"/>
+      <c r="A546" s="23"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="25"/>
+      <c r="A547" s="23"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="25"/>
+      <c r="A548" s="23"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="25"/>
+      <c r="A549" s="23"/>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="25"/>
+      <c r="A550" s="23"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="25"/>
+      <c r="A551" s="23"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="25"/>
+      <c r="A552" s="23"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="25"/>
+      <c r="A553" s="23"/>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="25"/>
+      <c r="A554" s="23"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="25"/>
+      <c r="A555" s="23"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="25"/>
+      <c r="A556" s="23"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="25"/>
+      <c r="A557" s="23"/>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="25"/>
+      <c r="A558" s="23"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="25"/>
+      <c r="A559" s="23"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="25"/>
+      <c r="A560" s="23"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="25"/>
+      <c r="A561" s="23"/>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="25"/>
+      <c r="A562" s="23"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="25"/>
+      <c r="A563" s="23"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="25"/>
+      <c r="A564" s="23"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="25"/>
+      <c r="A565" s="23"/>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="25"/>
+      <c r="A566" s="23"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="25"/>
+      <c r="A567" s="23"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="25"/>
+      <c r="A568" s="23"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="25"/>
+      <c r="A569" s="23"/>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="25"/>
+      <c r="A570" s="23"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="25"/>
+      <c r="A571" s="23"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="25"/>
+      <c r="A572" s="23"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="25"/>
+      <c r="A573" s="23"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="25"/>
+      <c r="A574" s="23"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="25"/>
+      <c r="A575" s="23"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="25"/>
+      <c r="A576" s="23"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="25"/>
+      <c r="A577" s="23"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="25"/>
+      <c r="A578" s="23"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="25"/>
+      <c r="A579" s="23"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="25"/>
+      <c r="A580" s="23"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="25"/>
+      <c r="A581" s="23"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="25"/>
+      <c r="A582" s="23"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="25"/>
+      <c r="A583" s="23"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="25"/>
+      <c r="A584" s="23"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="25"/>
+      <c r="A585" s="23"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="25"/>
+      <c r="A586" s="23"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="25"/>
+      <c r="A587" s="23"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="25"/>
+      <c r="A588" s="23"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="25"/>
+      <c r="A589" s="23"/>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="25"/>
+      <c r="A590" s="23"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="25"/>
+      <c r="A591" s="23"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="25"/>
+      <c r="A592" s="23"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="25"/>
+      <c r="A593" s="23"/>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="25"/>
+      <c r="A594" s="23"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="25"/>
+      <c r="A595" s="23"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="25"/>
+      <c r="A596" s="23"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="25"/>
+      <c r="A597" s="23"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="25"/>
+      <c r="A598" s="23"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="25"/>
+      <c r="A599" s="23"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="25"/>
+      <c r="A600" s="23"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="25"/>
+      <c r="A601" s="23"/>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="25"/>
+      <c r="A602" s="23"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="25"/>
+      <c r="A603" s="23"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="25"/>
+      <c r="A604" s="23"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="25"/>
+      <c r="A605" s="23"/>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="25"/>
+      <c r="A606" s="23"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="25"/>
+      <c r="A607" s="23"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="25"/>
+      <c r="A608" s="23"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="25"/>
+      <c r="A609" s="23"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="25"/>
+      <c r="A610" s="23"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="25"/>
+      <c r="A611" s="23"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="25"/>
+      <c r="A612" s="23"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="25"/>
+      <c r="A613" s="23"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="25"/>
+      <c r="A614" s="23"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="25"/>
+      <c r="A615" s="23"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="25"/>
+      <c r="A616" s="23"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="25"/>
+      <c r="A617" s="23"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="25"/>
+      <c r="A618" s="23"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="25"/>
+      <c r="A619" s="23"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="25"/>
+      <c r="A620" s="23"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="25"/>
+      <c r="A621" s="23"/>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="25"/>
+      <c r="A622" s="23"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="25"/>
+      <c r="A623" s="23"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="25"/>
+      <c r="A624" s="23"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="25"/>
+      <c r="A625" s="23"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="25"/>
+      <c r="A626" s="23"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="25"/>
+      <c r="A627" s="23"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="25"/>
+      <c r="A628" s="23"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="25"/>
+      <c r="A629" s="23"/>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="25"/>
+      <c r="A630" s="23"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="25"/>
+      <c r="A631" s="23"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="25"/>
+      <c r="A632" s="23"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="25"/>
+      <c r="A633" s="23"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="25"/>
+      <c r="A634" s="23"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="25"/>
+      <c r="A635" s="23"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="25"/>
+      <c r="A636" s="23"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="25"/>
+      <c r="A637" s="23"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="25"/>
+      <c r="A638" s="23"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="25"/>
+      <c r="A639" s="23"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="25"/>
+      <c r="A640" s="23"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="25"/>
+      <c r="A641" s="23"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="25"/>
+      <c r="A642" s="23"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="25"/>
+      <c r="A643" s="23"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="25"/>
+      <c r="A644" s="23"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="25"/>
+      <c r="A645" s="23"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="25"/>
+      <c r="A646" s="23"/>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="25"/>
+      <c r="A647" s="23"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="25"/>
+      <c r="A648" s="23"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="25"/>
+      <c r="A649" s="23"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="25"/>
+      <c r="A650" s="23"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="25"/>
+      <c r="A651" s="23"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="25"/>
+      <c r="A652" s="23"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="25"/>
+      <c r="A653" s="23"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="25"/>
+      <c r="A654" s="23"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="25"/>
+      <c r="A655" s="23"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="25"/>
+      <c r="A656" s="23"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="25"/>
+      <c r="A657" s="23"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="25"/>
+      <c r="A658" s="23"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="25"/>
+      <c r="A659" s="23"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="25"/>
+      <c r="A660" s="23"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="25"/>
+      <c r="A661" s="23"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="25"/>
+      <c r="A662" s="23"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="25"/>
+      <c r="A663" s="23"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="25"/>
+      <c r="A664" s="23"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="25"/>
+      <c r="A665" s="23"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="25"/>
+      <c r="A666" s="23"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="25"/>
+      <c r="A667" s="23"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="25"/>
+      <c r="A668" s="23"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="25"/>
+      <c r="A669" s="23"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="25"/>
+      <c r="A670" s="23"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="25"/>
+      <c r="A671" s="23"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="25"/>
+      <c r="A672" s="23"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="25"/>
+      <c r="A673" s="23"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="25"/>
+      <c r="A674" s="23"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="25"/>
+      <c r="A675" s="23"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="25"/>
+      <c r="A676" s="23"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="25"/>
+      <c r="A677" s="23"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="25"/>
+      <c r="A678" s="23"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="25"/>
+      <c r="A679" s="23"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="25"/>
+      <c r="A680" s="23"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="25"/>
+      <c r="A681" s="23"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="25"/>
+      <c r="A682" s="23"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="25"/>
+      <c r="A683" s="23"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="25"/>
+      <c r="A684" s="23"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="25"/>
+      <c r="A685" s="23"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="25"/>
+      <c r="A686" s="23"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="25"/>
+      <c r="A687" s="23"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="25"/>
+      <c r="A688" s="23"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="25"/>
+      <c r="A689" s="23"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="25"/>
+      <c r="A690" s="23"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="25"/>
+      <c r="A691" s="23"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="25"/>
+      <c r="A692" s="23"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="25"/>
+      <c r="A693" s="23"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="25"/>
+      <c r="A694" s="23"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="25"/>
+      <c r="A695" s="23"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="25"/>
+      <c r="A696" s="23"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="25"/>
+      <c r="A697" s="23"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="25"/>
+      <c r="A698" s="23"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="25"/>
+      <c r="A699" s="23"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="25"/>
+      <c r="A700" s="23"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="25"/>
+      <c r="A701" s="23"/>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="25"/>
+      <c r="A702" s="23"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="25"/>
+      <c r="A703" s="23"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="25"/>
+      <c r="A704" s="23"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="25"/>
+      <c r="A705" s="23"/>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="25"/>
+      <c r="A706" s="23"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="25"/>
+      <c r="A707" s="23"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="25"/>
+      <c r="A708" s="23"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="25"/>
+      <c r="A709" s="23"/>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" s="25"/>
+      <c r="A710" s="23"/>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" s="25"/>
+      <c r="A711" s="23"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" s="25"/>
+      <c r="A712" s="23"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="25"/>
+      <c r="A713" s="23"/>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" s="25"/>
+      <c r="A714" s="23"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="25"/>
+      <c r="A715" s="23"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" s="25"/>
+      <c r="A716" s="23"/>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" s="25"/>
+      <c r="A717" s="23"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="25"/>
+      <c r="A718" s="23"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="25"/>
+      <c r="A719" s="23"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="25"/>
+      <c r="A720" s="23"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="25"/>
+      <c r="A721" s="23"/>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722" s="25"/>
+      <c r="A722" s="23"/>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" s="25"/>
+      <c r="A723" s="23"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="25"/>
+      <c r="A724" s="23"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="25"/>
+      <c r="A725" s="23"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="25"/>
+      <c r="A726" s="23"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" s="25"/>
+      <c r="A727" s="23"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="25"/>
+      <c r="A728" s="23"/>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" s="25"/>
+      <c r="A729" s="23"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" s="25"/>
+      <c r="A730" s="23"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="25"/>
+      <c r="A731" s="23"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="25"/>
+      <c r="A732" s="23"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="25"/>
+      <c r="A733" s="23"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="25"/>
+      <c r="A734" s="23"/>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" s="25"/>
+      <c r="A735" s="23"/>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" s="25"/>
+      <c r="A736" s="23"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" s="25"/>
+      <c r="A737" s="23"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="25"/>
+      <c r="A738" s="23"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="25"/>
+      <c r="A739" s="23"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="25"/>
+      <c r="A740" s="23"/>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" s="25"/>
+      <c r="A741" s="23"/>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" s="25"/>
+      <c r="A742" s="23"/>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="25"/>
+      <c r="A743" s="23"/>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="25"/>
+      <c r="A744" s="23"/>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="25"/>
+      <c r="A745" s="23"/>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" s="25"/>
+      <c r="A746" s="23"/>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" s="25"/>
+      <c r="A747" s="23"/>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="25"/>
+      <c r="A748" s="23"/>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="25"/>
+      <c r="A749" s="23"/>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="25"/>
+      <c r="A750" s="23"/>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="25"/>
+      <c r="A751" s="23"/>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" s="25"/>
+      <c r="A752" s="23"/>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" s="25"/>
+      <c r="A753" s="23"/>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="25"/>
+      <c r="A754" s="23"/>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="25"/>
+      <c r="A755" s="23"/>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="25"/>
+      <c r="A756" s="23"/>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" s="25"/>
+      <c r="A757" s="23"/>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" s="25"/>
+      <c r="A758" s="23"/>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="25"/>
+      <c r="A759" s="23"/>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="25"/>
+      <c r="A760" s="23"/>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" s="25"/>
+      <c r="A761" s="23"/>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" s="25"/>
+      <c r="A762" s="23"/>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" s="25"/>
+      <c r="A763" s="23"/>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" s="25"/>
+      <c r="A764" s="23"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="25"/>
+      <c r="A765" s="23"/>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="25"/>
+      <c r="A766" s="23"/>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" s="25"/>
+      <c r="A767" s="23"/>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="25"/>
+      <c r="A768" s="23"/>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" s="25"/>
+      <c r="A769" s="23"/>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" s="25"/>
+      <c r="A770" s="23"/>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" s="25"/>
+      <c r="A771" s="23"/>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" s="25"/>
+      <c r="A772" s="23"/>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="25"/>
+      <c r="A773" s="23"/>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="25"/>
+      <c r="A774" s="23"/>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="25"/>
+      <c r="A775" s="23"/>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" s="25"/>
+      <c r="A776" s="23"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="25"/>
+      <c r="A777" s="23"/>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="25"/>
+      <c r="A778" s="23"/>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" s="25"/>
+      <c r="A779" s="23"/>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="25"/>
+      <c r="A780" s="23"/>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="25"/>
+      <c r="A781" s="23"/>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" s="25"/>
+      <c r="A782" s="23"/>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="25"/>
+      <c r="A783" s="23"/>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" s="25"/>
+      <c r="A784" s="23"/>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" s="25"/>
+      <c r="A785" s="23"/>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" s="25"/>
+      <c r="A786" s="23"/>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" s="25"/>
+      <c r="A787" s="23"/>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" s="25"/>
+      <c r="A788" s="23"/>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="25"/>
+      <c r="A789" s="23"/>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" s="25"/>
+      <c r="A790" s="23"/>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" s="25"/>
+      <c r="A791" s="23"/>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" s="25"/>
+      <c r="A792" s="23"/>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" s="25"/>
+      <c r="A793" s="23"/>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="25"/>
+      <c r="A794" s="23"/>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="25"/>
+      <c r="A795" s="23"/>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" s="25"/>
+      <c r="A796" s="23"/>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797" s="25"/>
+      <c r="A797" s="23"/>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="25"/>
+      <c r="A798" s="23"/>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" s="25"/>
+      <c r="A799" s="23"/>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800" s="25"/>
+      <c r="A800" s="23"/>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A801" s="25"/>
+      <c r="A801" s="23"/>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A802" s="25"/>
+      <c r="A802" s="23"/>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="25"/>
+      <c r="A803" s="23"/>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A804" s="25"/>
+      <c r="A804" s="23"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="25"/>
+      <c r="A805" s="23"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806" s="25"/>
+      <c r="A806" s="23"/>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A807" s="25"/>
+      <c r="A807" s="23"/>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808" s="25"/>
+      <c r="A808" s="23"/>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="25"/>
+      <c r="A809" s="23"/>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="25"/>
+      <c r="A810" s="23"/>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="25"/>
+      <c r="A811" s="23"/>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A812" s="25"/>
+      <c r="A812" s="23"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="25"/>
+      <c r="A813" s="23"/>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A814" s="25"/>
+      <c r="A814" s="23"/>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815" s="25"/>
+      <c r="A815" s="23"/>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="25"/>
+      <c r="A816" s="23"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="25"/>
+      <c r="A817" s="23"/>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="25"/>
+      <c r="A818" s="23"/>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819" s="25"/>
+      <c r="A819" s="23"/>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" s="25"/>
+      <c r="A820" s="23"/>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" s="25"/>
+      <c r="A821" s="23"/>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A822" s="25"/>
+      <c r="A822" s="23"/>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823" s="25"/>
+      <c r="A823" s="23"/>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824" s="25"/>
+      <c r="A824" s="23"/>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825" s="25"/>
+      <c r="A825" s="23"/>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826" s="25"/>
+      <c r="A826" s="23"/>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827" s="25"/>
+      <c r="A827" s="23"/>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" s="25"/>
+      <c r="A828" s="23"/>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" s="25"/>
+      <c r="A829" s="23"/>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" s="25"/>
+      <c r="A830" s="23"/>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831" s="25"/>
+      <c r="A831" s="23"/>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832" s="25"/>
+      <c r="A832" s="23"/>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="25"/>
+      <c r="A833" s="23"/>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834" s="25"/>
+      <c r="A834" s="23"/>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835" s="25"/>
+      <c r="A835" s="23"/>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A836" s="25"/>
+      <c r="A836" s="23"/>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A837" s="25"/>
+      <c r="A837" s="23"/>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838" s="25"/>
+      <c r="A838" s="23"/>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839" s="25"/>
+      <c r="A839" s="23"/>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840" s="25"/>
+      <c r="A840" s="23"/>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A841" s="25"/>
+      <c r="A841" s="23"/>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A842" s="25"/>
+      <c r="A842" s="23"/>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843" s="25"/>
+      <c r="A843" s="23"/>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844" s="25"/>
+      <c r="A844" s="23"/>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="25"/>
+      <c r="A845" s="23"/>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A846" s="25"/>
+      <c r="A846" s="23"/>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A847" s="25"/>
+      <c r="A847" s="23"/>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A848" s="25"/>
+      <c r="A848" s="23"/>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849" s="25"/>
+      <c r="A849" s="23"/>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850" s="25"/>
+      <c r="A850" s="23"/>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851" s="25"/>
+      <c r="A851" s="23"/>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852" s="25"/>
+      <c r="A852" s="23"/>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="25"/>
+      <c r="A853" s="23"/>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="25"/>
+      <c r="A854" s="23"/>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="25"/>
+      <c r="A855" s="23"/>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="25"/>
+      <c r="A856" s="23"/>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="25"/>
+      <c r="A857" s="23"/>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="25"/>
+      <c r="A858" s="23"/>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859" s="25"/>
+      <c r="A859" s="23"/>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="25"/>
+      <c r="A860" s="23"/>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="25"/>
+      <c r="A861" s="23"/>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862" s="25"/>
+      <c r="A862" s="23"/>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863" s="25"/>
+      <c r="A863" s="23"/>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="25"/>
+      <c r="A864" s="23"/>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="25"/>
+      <c r="A865" s="23"/>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866" s="25"/>
+      <c r="A866" s="23"/>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867" s="25"/>
+      <c r="A867" s="23"/>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="25"/>
+      <c r="A868" s="23"/>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="25"/>
+      <c r="A869" s="23"/>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="25"/>
+      <c r="A870" s="23"/>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871" s="25"/>
+      <c r="A871" s="23"/>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" s="25"/>
+      <c r="A872" s="23"/>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="25"/>
+      <c r="A873" s="23"/>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="25"/>
+      <c r="A874" s="23"/>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="25"/>
+      <c r="A875" s="23"/>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="25"/>
+      <c r="A876" s="23"/>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="25"/>
+      <c r="A877" s="23"/>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878" s="25"/>
+      <c r="A878" s="23"/>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" s="25"/>
+      <c r="A879" s="23"/>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="25"/>
+      <c r="A880" s="23"/>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881" s="25"/>
+      <c r="A881" s="23"/>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882" s="25"/>
+      <c r="A882" s="23"/>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" s="25"/>
+      <c r="A883" s="23"/>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884" s="25"/>
+      <c r="A884" s="23"/>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885" s="25"/>
+      <c r="A885" s="23"/>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="25"/>
+      <c r="A886" s="23"/>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="25"/>
+      <c r="A887" s="23"/>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="25"/>
+      <c r="A888" s="23"/>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889" s="25"/>
+      <c r="A889" s="23"/>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="25"/>
+      <c r="A890" s="23"/>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="25"/>
+      <c r="A891" s="23"/>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="25"/>
+      <c r="A892" s="23"/>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="25"/>
+      <c r="A893" s="23"/>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="25"/>
+      <c r="A894" s="23"/>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" s="25"/>
+      <c r="A895" s="23"/>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="25"/>
+      <c r="A896" s="23"/>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897" s="25"/>
+      <c r="A897" s="23"/>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="25"/>
+      <c r="A898" s="23"/>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="25"/>
+      <c r="A899" s="23"/>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="25"/>
+      <c r="A900" s="23"/>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901" s="25"/>
+      <c r="A901" s="23"/>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902" s="25"/>
+      <c r="A902" s="23"/>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903" s="25"/>
+      <c r="A903" s="23"/>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="25"/>
+      <c r="A904" s="23"/>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="25"/>
+      <c r="A905" s="23"/>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906" s="25"/>
+      <c r="A906" s="23"/>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907" s="25"/>
+      <c r="A907" s="23"/>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="25"/>
+      <c r="A908" s="23"/>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="25"/>
+      <c r="A909" s="23"/>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="25"/>
+      <c r="A910" s="23"/>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="25"/>
+      <c r="A911" s="23"/>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912" s="25"/>
+      <c r="A912" s="23"/>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="25"/>
+      <c r="A913" s="23"/>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="25"/>
+      <c r="A914" s="23"/>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="25"/>
+      <c r="A915" s="23"/>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="25"/>
+      <c r="A916" s="23"/>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917" s="25"/>
+      <c r="A917" s="23"/>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="25"/>
+      <c r="A918" s="23"/>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="25"/>
+      <c r="A919" s="23"/>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="25"/>
+      <c r="A920" s="23"/>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="25"/>
+      <c r="A921" s="23"/>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922" s="25"/>
+      <c r="A922" s="23"/>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923" s="25"/>
+      <c r="A923" s="23"/>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="25"/>
+      <c r="A924" s="23"/>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="25"/>
+      <c r="A925" s="23"/>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="25"/>
+      <c r="A926" s="23"/>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="25"/>
+      <c r="A927" s="23"/>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" s="25"/>
+      <c r="A928" s="23"/>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="25"/>
+      <c r="A929" s="23"/>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="25"/>
+      <c r="A930" s="23"/>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="25"/>
+      <c r="A931" s="23"/>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="25"/>
+      <c r="A932" s="23"/>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="25"/>
+      <c r="A933" s="23"/>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" s="25"/>
+      <c r="A934" s="23"/>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" s="25"/>
+      <c r="A935" s="23"/>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="25"/>
+      <c r="A936" s="23"/>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" s="25"/>
+      <c r="A937" s="23"/>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="25"/>
+      <c r="A938" s="23"/>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" s="25"/>
+      <c r="A939" s="23"/>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" s="25"/>
+      <c r="A940" s="23"/>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941" s="25"/>
+      <c r="A941" s="23"/>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942" s="25"/>
+      <c r="A942" s="23"/>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943" s="25"/>
+      <c r="A943" s="23"/>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" s="25"/>
+      <c r="A944" s="23"/>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A945" s="25"/>
+      <c r="A945" s="23"/>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A946" s="25"/>
+      <c r="A946" s="23"/>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A947" s="25"/>
+      <c r="A947" s="23"/>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A948" s="25"/>
+      <c r="A948" s="23"/>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A949" s="25"/>
+      <c r="A949" s="23"/>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A950" s="25"/>
+      <c r="A950" s="23"/>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A951" s="25"/>
+      <c r="A951" s="23"/>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A952" s="25"/>
+      <c r="A952" s="23"/>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A953" s="25"/>
+      <c r="A953" s="23"/>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A954" s="25"/>
+      <c r="A954" s="23"/>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A955" s="25"/>
+      <c r="A955" s="23"/>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A956" s="25"/>
+      <c r="A956" s="23"/>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A957" s="25"/>
+      <c r="A957" s="23"/>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A958" s="25"/>
+      <c r="A958" s="23"/>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A959" s="25"/>
+      <c r="A959" s="23"/>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A960" s="25"/>
+      <c r="A960" s="23"/>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A961" s="25"/>
+      <c r="A961" s="23"/>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A962" s="25"/>
+      <c r="A962" s="23"/>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A963" s="25"/>
+      <c r="A963" s="23"/>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A964" s="25"/>
+      <c r="A964" s="23"/>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A965" s="25"/>
+      <c r="A965" s="23"/>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A966" s="25"/>
+      <c r="A966" s="23"/>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A967" s="25"/>
+      <c r="A967" s="23"/>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A968" s="25"/>
+      <c r="A968" s="23"/>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A969" s="25"/>
+      <c r="A969" s="23"/>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A970" s="25"/>
+      <c r="A970" s="23"/>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A971" s="25"/>
+      <c r="A971" s="23"/>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A972" s="25"/>
+      <c r="A972" s="23"/>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A973" s="25"/>
+      <c r="A973" s="23"/>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A974" s="25"/>
+      <c r="A974" s="23"/>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A975" s="25"/>
+      <c r="A975" s="23"/>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A976" s="25"/>
+      <c r="A976" s="23"/>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A977" s="25"/>
+      <c r="A977" s="23"/>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A978" s="25"/>
+      <c r="A978" s="23"/>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A979" s="25"/>
+      <c r="A979" s="23"/>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A980" s="25"/>
+      <c r="A980" s="23"/>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A981" s="25"/>
+      <c r="A981" s="23"/>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A982" s="25"/>
+      <c r="A982" s="23"/>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A983" s="25"/>
+      <c r="A983" s="23"/>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A984" s="25"/>
+      <c r="A984" s="23"/>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A985" s="25"/>
+      <c r="A985" s="23"/>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A986" s="25"/>
+      <c r="A986" s="23"/>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A987" s="25"/>
+      <c r="A987" s="23"/>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A988" s="25"/>
+      <c r="A988" s="23"/>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A989" s="25"/>
+      <c r="A989" s="23"/>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A990" s="25"/>
+      <c r="A990" s="23"/>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A991" s="25"/>
+      <c r="A991" s="23"/>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A992" s="25"/>
+      <c r="A992" s="23"/>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A993" s="25"/>
+      <c r="A993" s="23"/>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A994" s="25"/>
+      <c r="A994" s="23"/>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995" s="25"/>
+      <c r="A995" s="23"/>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996" s="25"/>
+      <c r="A996" s="23"/>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A997" s="25"/>
+      <c r="A997" s="23"/>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998" s="25"/>
+      <c r="A998" s="23"/>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A999" s="25"/>
+      <c r="A999" s="23"/>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="25"/>
+      <c r="A1000" s="23"/>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="25"/>
+      <c r="A1001" s="23"/>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1002" s="25"/>
+      <c r="A1002" s="23"/>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1003" s="25"/>
+      <c r="A1003" s="23"/>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1004" s="25"/>
+      <c r="A1004" s="23"/>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1005" s="25"/>
+      <c r="A1005" s="23"/>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1006" s="25"/>
+      <c r="A1006" s="23"/>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1007" s="25"/>
+      <c r="A1007" s="23"/>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1008" s="25"/>
+      <c r="A1008" s="23"/>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1009" s="25"/>
+      <c r="A1009" s="23"/>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1010" s="25"/>
+      <c r="A1010" s="23"/>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1011" s="25"/>
+      <c r="A1011" s="23"/>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1012" s="25"/>
+      <c r="A1012" s="23"/>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1013" s="25"/>
+      <c r="A1013" s="23"/>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1014" s="25"/>
+      <c r="A1014" s="23"/>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1015" s="25"/>
+      <c r="A1015" s="23"/>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1016" s="25"/>
+      <c r="A1016" s="23"/>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1017" s="25"/>
+      <c r="A1017" s="23"/>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1018" s="25"/>
+      <c r="A1018" s="23"/>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1019" s="25"/>
+      <c r="A1019" s="23"/>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1020" s="25"/>
+      <c r="A1020" s="23"/>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1021" s="25"/>
+      <c r="A1021" s="23"/>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1022" s="25"/>
+      <c r="A1022" s="23"/>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1023" s="25"/>
+      <c r="A1023" s="23"/>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1024" s="25"/>
+      <c r="A1024" s="23"/>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1025" s="25"/>
+      <c r="A1025" s="23"/>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1026" s="25"/>
+      <c r="A1026" s="23"/>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1027" s="25"/>
+      <c r="A1027" s="23"/>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1028" s="25"/>
+      <c r="A1028" s="23"/>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1029" s="25"/>
+      <c r="A1029" s="23"/>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1030" s="25"/>
+      <c r="A1030" s="23"/>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1031" s="25"/>
+      <c r="A1031" s="23"/>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1032" s="25"/>
+      <c r="A1032" s="23"/>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1033" s="25"/>
+      <c r="A1033" s="23"/>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1034" s="25"/>
+      <c r="A1034" s="23"/>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1035" s="25"/>
+      <c r="A1035" s="23"/>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1036" s="25"/>
+      <c r="A1036" s="23"/>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1037" s="25"/>
+      <c r="A1037" s="23"/>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1038" s="25"/>
+      <c r="A1038" s="23"/>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1039" s="25"/>
+      <c r="A1039" s="23"/>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1040" s="25"/>
+      <c r="A1040" s="23"/>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1041" s="25"/>
+      <c r="A1041" s="23"/>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1042" s="25"/>
+      <c r="A1042" s="23"/>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1043" s="25"/>
+      <c r="A1043" s="23"/>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1044" s="25"/>
+      <c r="A1044" s="23"/>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1045" s="25"/>
+      <c r="A1045" s="23"/>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1046" s="25"/>
+      <c r="A1046" s="23"/>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1047" s="25"/>
+      <c r="A1047" s="23"/>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048" s="25"/>
+      <c r="A1048" s="23"/>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1049" s="25"/>
+      <c r="A1049" s="23"/>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1050" s="25"/>
+      <c r="A1050" s="23"/>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1051" s="25"/>
+      <c r="A1051" s="23"/>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1052" s="25"/>
+      <c r="A1052" s="23"/>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1053" s="25"/>
+      <c r="A1053" s="23"/>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1054" s="25"/>
+      <c r="A1054" s="23"/>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1055" s="25"/>
+      <c r="A1055" s="23"/>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1056" s="25"/>
+      <c r="A1056" s="23"/>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1057" s="25"/>
+      <c r="A1057" s="23"/>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1058" s="25"/>
+      <c r="A1058" s="23"/>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1059" s="25"/>
+      <c r="A1059" s="23"/>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1060" s="25"/>
+      <c r="A1060" s="23"/>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1061" s="25"/>
+      <c r="A1061" s="23"/>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1062" s="25"/>
+      <c r="A1062" s="23"/>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1063" s="25"/>
+      <c r="A1063" s="23"/>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1064" s="25"/>
+      <c r="A1064" s="23"/>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1065" s="25"/>
+      <c r="A1065" s="23"/>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1066" s="25"/>
+      <c r="A1066" s="23"/>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1067" s="25"/>
+      <c r="A1067" s="23"/>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1068" s="25"/>
+      <c r="A1068" s="23"/>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1069" s="25"/>
+      <c r="A1069" s="23"/>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1070" s="25"/>
+      <c r="A1070" s="23"/>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1071" s="25"/>
+      <c r="A1071" s="23"/>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1072" s="25"/>
+      <c r="A1072" s="23"/>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1073" s="25"/>
+      <c r="A1073" s="23"/>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1074" s="25"/>
+      <c r="A1074" s="23"/>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1075" s="25"/>
+      <c r="A1075" s="23"/>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1076" s="25"/>
+      <c r="A1076" s="23"/>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1077" s="25"/>
+      <c r="A1077" s="23"/>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1078" s="25"/>
+      <c r="A1078" s="23"/>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1079" s="25"/>
+      <c r="A1079" s="23"/>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1080" s="25"/>
+      <c r="A1080" s="23"/>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1081" s="25"/>
+      <c r="A1081" s="23"/>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1082" s="25"/>
+      <c r="A1082" s="23"/>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1083" s="25"/>
+      <c r="A1083" s="23"/>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1084" s="25"/>
+      <c r="A1084" s="23"/>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1085" s="25"/>
+      <c r="A1085" s="23"/>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1086" s="25"/>
+      <c r="A1086" s="23"/>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1087" s="25"/>
+      <c r="A1087" s="23"/>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1088" s="25"/>
+      <c r="A1088" s="23"/>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1089" s="25"/>
+      <c r="A1089" s="23"/>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1090" s="25"/>
+      <c r="A1090" s="23"/>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1091" s="25"/>
+      <c r="A1091" s="23"/>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1092" s="25"/>
+      <c r="A1092" s="23"/>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1093" s="25"/>
+      <c r="A1093" s="23"/>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1094" s="25"/>
+      <c r="A1094" s="23"/>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1095" s="25"/>
+      <c r="A1095" s="23"/>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1096" s="25"/>
+      <c r="A1096" s="23"/>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1097" s="25"/>
+      <c r="A1097" s="23"/>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1098" s="25"/>
+      <c r="A1098" s="23"/>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1099" s="25"/>
+      <c r="A1099" s="23"/>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1100" s="25"/>
+      <c r="A1100" s="23"/>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1101" s="25"/>
+      <c r="A1101" s="23"/>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1102" s="25"/>
+      <c r="A1102" s="23"/>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1103" s="25"/>
+      <c r="A1103" s="23"/>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1104" s="25"/>
+      <c r="A1104" s="23"/>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1105" s="25"/>
+      <c r="A1105" s="23"/>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1106" s="25"/>
+      <c r="A1106" s="23"/>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1107" s="25"/>
+      <c r="A1107" s="23"/>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1108" s="25"/>
+      <c r="A1108" s="23"/>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1109" s="25"/>
+      <c r="A1109" s="23"/>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1110" s="25"/>
+      <c r="A1110" s="23"/>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1111" s="25"/>
+      <c r="A1111" s="23"/>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1112" s="25"/>
+      <c r="A1112" s="23"/>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1113" s="25"/>
+      <c r="A1113" s="23"/>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1114" s="25"/>
+      <c r="A1114" s="23"/>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1115" s="25"/>
+      <c r="A1115" s="23"/>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1116" s="25"/>
+      <c r="A1116" s="23"/>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1117" s="25"/>
+      <c r="A1117" s="23"/>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1118" s="25"/>
+      <c r="A1118" s="23"/>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1119" s="25"/>
+      <c r="A1119" s="23"/>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1120" s="25"/>
+      <c r="A1120" s="23"/>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1121" s="25"/>
+      <c r="A1121" s="23"/>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1122" s="25"/>
+      <c r="A1122" s="23"/>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1123" s="25"/>
+      <c r="A1123" s="23"/>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1124" s="25"/>
+      <c r="A1124" s="23"/>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1125" s="25"/>
+      <c r="A1125" s="23"/>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1126" s="25"/>
+      <c r="A1126" s="23"/>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1127" s="25"/>
+      <c r="A1127" s="23"/>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1128" s="25"/>
+      <c r="A1128" s="23"/>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1129" s="25"/>
+      <c r="A1129" s="23"/>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1130" s="25"/>
+      <c r="A1130" s="23"/>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1131" s="25"/>
+      <c r="A1131" s="23"/>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1132" s="25"/>
+      <c r="A1132" s="23"/>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1133" s="25"/>
+      <c r="A1133" s="23"/>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1134" s="25"/>
+      <c r="A1134" s="23"/>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1135" s="25"/>
+      <c r="A1135" s="23"/>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1136" s="25"/>
+      <c r="A1136" s="23"/>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1137" s="25"/>
+      <c r="A1137" s="23"/>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1138" s="25"/>
+      <c r="A1138" s="23"/>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1139" s="25"/>
+      <c r="A1139" s="23"/>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1140" s="25"/>
+      <c r="A1140" s="23"/>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1141" s="25"/>
+      <c r="A1141" s="23"/>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1142" s="25"/>
+      <c r="A1142" s="23"/>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1143" s="25"/>
+      <c r="A1143" s="23"/>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1144" s="25"/>
+      <c r="A1144" s="23"/>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1145" s="25"/>
+      <c r="A1145" s="23"/>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1146" s="25"/>
+      <c r="A1146" s="23"/>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1147" s="25"/>
+      <c r="A1147" s="23"/>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1148" s="25"/>
+      <c r="A1148" s="23"/>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1149" s="25"/>
+      <c r="A1149" s="23"/>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1150" s="25"/>
+      <c r="A1150" s="23"/>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1151" s="25"/>
+      <c r="A1151" s="23"/>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1152" s="25"/>
+      <c r="A1152" s="23"/>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1153" s="25"/>
+      <c r="A1153" s="23"/>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1154" s="25"/>
+      <c r="A1154" s="23"/>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1155" s="25"/>
+      <c r="A1155" s="23"/>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1156" s="25"/>
+      <c r="A1156" s="23"/>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1157" s="25"/>
+      <c r="A1157" s="23"/>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1158" s="25"/>
+      <c r="A1158" s="23"/>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1159" s="25"/>
+      <c r="A1159" s="23"/>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1160" s="25"/>
+      <c r="A1160" s="23"/>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1161" s="25"/>
+      <c r="A1161" s="23"/>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1162" s="25"/>
+      <c r="A1162" s="23"/>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1163" s="25"/>
+      <c r="A1163" s="23"/>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1164" s="25"/>
+      <c r="A1164" s="23"/>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1165" s="25"/>
+      <c r="A1165" s="23"/>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1166" s="25"/>
+      <c r="A1166" s="23"/>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1167" s="25"/>
+      <c r="A1167" s="23"/>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1168" s="25"/>
+      <c r="A1168" s="23"/>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1169" s="25"/>
+      <c r="A1169" s="23"/>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1170" s="25"/>
+      <c r="A1170" s="23"/>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1171" s="25"/>
+      <c r="A1171" s="23"/>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1172" s="25"/>
+      <c r="A1172" s="23"/>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1173" s="25"/>
+      <c r="A1173" s="23"/>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1174" s="25"/>
+      <c r="A1174" s="23"/>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1175" s="25"/>
+      <c r="A1175" s="23"/>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1176" s="25"/>
+      <c r="A1176" s="23"/>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1177" s="25"/>
+      <c r="A1177" s="23"/>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1178" s="25"/>
+      <c r="A1178" s="23"/>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1179" s="25"/>
+      <c r="A1179" s="23"/>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1180" s="25"/>
+      <c r="A1180" s="23"/>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1181" s="25"/>
+      <c r="A1181" s="23"/>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1182" s="25"/>
+      <c r="A1182" s="23"/>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1183" s="25"/>
+      <c r="A1183" s="23"/>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1184" s="25"/>
+      <c r="A1184" s="23"/>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1185" s="25"/>
+      <c r="A1185" s="23"/>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1186" s="25"/>
+      <c r="A1186" s="23"/>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1187" s="25"/>
+      <c r="A1187" s="23"/>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1188" s="25"/>
+      <c r="A1188" s="23"/>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1189" s="25"/>
+      <c r="A1189" s="23"/>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1190" s="25"/>
+      <c r="A1190" s="23"/>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1191" s="25"/>
+      <c r="A1191" s="23"/>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1192" s="25"/>
+      <c r="A1192" s="23"/>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1193" s="25"/>
+      <c r="A1193" s="23"/>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1194" s="25"/>
+      <c r="A1194" s="23"/>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1195" s="25"/>
+      <c r="A1195" s="23"/>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1196" s="25"/>
+      <c r="A1196" s="23"/>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1197" s="25"/>
+      <c r="A1197" s="23"/>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1198" s="25"/>
+      <c r="A1198" s="23"/>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1199" s="25"/>
+      <c r="A1199" s="23"/>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1200" s="25"/>
+      <c r="A1200" s="23"/>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1201" s="25"/>
+      <c r="A1201" s="23"/>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1202" s="25"/>
+      <c r="A1202" s="23"/>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1203" s="25"/>
+      <c r="A1203" s="23"/>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1204" s="25"/>
+      <c r="A1204" s="23"/>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1205" s="25"/>
+      <c r="A1205" s="23"/>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1206" s="25"/>
+      <c r="A1206" s="23"/>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1207" s="25"/>
+      <c r="A1207" s="23"/>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1208" s="25"/>
+      <c r="A1208" s="23"/>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1209" s="25"/>
+      <c r="A1209" s="23"/>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1210" s="25"/>
+      <c r="A1210" s="23"/>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1211" s="25"/>
+      <c r="A1211" s="23"/>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1212" s="25"/>
+      <c r="A1212" s="23"/>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1213" s="25"/>
+      <c r="A1213" s="23"/>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1214" s="25"/>
+      <c r="A1214" s="23"/>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1215" s="25"/>
+      <c r="A1215" s="23"/>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1216" s="25"/>
+      <c r="A1216" s="23"/>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1217" s="25"/>
+      <c r="A1217" s="23"/>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1218" s="25"/>
+      <c r="A1218" s="23"/>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1219" s="25"/>
+      <c r="A1219" s="23"/>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1220" s="25"/>
+      <c r="A1220" s="23"/>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1221" s="25"/>
+      <c r="A1221" s="23"/>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1222" s="25"/>
+      <c r="A1222" s="23"/>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1223" s="25"/>
+      <c r="A1223" s="23"/>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1224" s="25"/>
+      <c r="A1224" s="23"/>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1225" s="25"/>
+      <c r="A1225" s="23"/>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1226" s="25"/>
+      <c r="A1226" s="23"/>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1227" s="25"/>
+      <c r="A1227" s="23"/>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1228" s="25"/>
+      <c r="A1228" s="23"/>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1229" s="25"/>
+      <c r="A1229" s="23"/>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1230" s="25"/>
+      <c r="A1230" s="23"/>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1231" s="25"/>
+      <c r="A1231" s="23"/>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1232" s="25"/>
+      <c r="A1232" s="23"/>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1233" s="25"/>
+      <c r="A1233" s="23"/>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1234" s="25"/>
+      <c r="A1234" s="23"/>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1235" s="25"/>
+      <c r="A1235" s="23"/>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1236" s="25"/>
+      <c r="A1236" s="23"/>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1237" s="25"/>
+      <c r="A1237" s="23"/>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1238" s="25"/>
+      <c r="A1238" s="23"/>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1239" s="25"/>
+      <c r="A1239" s="23"/>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1240" s="25"/>
+      <c r="A1240" s="23"/>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1241" s="25"/>
+      <c r="A1241" s="23"/>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1242" s="25"/>
+      <c r="A1242" s="23"/>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1243" s="25"/>
+      <c r="A1243" s="23"/>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1244" s="25"/>
+      <c r="A1244" s="23"/>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1245" s="25"/>
+      <c r="A1245" s="23"/>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1246" s="25"/>
+      <c r="A1246" s="23"/>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1247" s="25"/>
+      <c r="A1247" s="23"/>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1248" s="25"/>
+      <c r="A1248" s="23"/>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1249" s="25"/>
+      <c r="A1249" s="23"/>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1250" s="25"/>
+      <c r="A1250" s="23"/>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1251" s="25"/>
+      <c r="A1251" s="23"/>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1252" s="25"/>
+      <c r="A1252" s="23"/>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1253" s="25"/>
+      <c r="A1253" s="23"/>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1254" s="25"/>
+      <c r="A1254" s="23"/>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1255" s="25"/>
+      <c r="A1255" s="23"/>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1256" s="25"/>
+      <c r="A1256" s="23"/>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1257" s="25"/>
+      <c r="A1257" s="23"/>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1258" s="25"/>
+      <c r="A1258" s="23"/>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1259" s="25"/>
+      <c r="A1259" s="23"/>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1260" s="25"/>
+      <c r="A1260" s="23"/>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1261" s="25"/>
+      <c r="A1261" s="23"/>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1262" s="25"/>
+      <c r="A1262" s="23"/>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1263" s="25"/>
+      <c r="A1263" s="23"/>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1264" s="25"/>
+      <c r="A1264" s="23"/>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1265" s="25"/>
+      <c r="A1265" s="23"/>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1266" s="25"/>
+      <c r="A1266" s="23"/>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1267" s="25"/>
+      <c r="A1267" s="23"/>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1268" s="25"/>
+      <c r="A1268" s="23"/>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1269" s="25"/>
+      <c r="A1269" s="23"/>
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1270" s="25"/>
+      <c r="A1270" s="23"/>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1271" s="25"/>
+      <c r="A1271" s="23"/>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1272" s="25"/>
+      <c r="A1272" s="23"/>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1273" s="25"/>
+      <c r="A1273" s="23"/>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1274" s="25"/>
+      <c r="A1274" s="23"/>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1275" s="25"/>
+      <c r="A1275" s="23"/>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1276" s="25"/>
+      <c r="A1276" s="23"/>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1277" s="25"/>
+      <c r="A1277" s="23"/>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1278" s="25"/>
+      <c r="A1278" s="23"/>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1279" s="25"/>
+      <c r="A1279" s="23"/>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1280" s="25"/>
+      <c r="A1280" s="23"/>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1281" s="25"/>
+      <c r="A1281" s="23"/>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1282" s="25"/>
+      <c r="A1282" s="23"/>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1283" s="25"/>
+      <c r="A1283" s="23"/>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1284" s="25"/>
+      <c r="A1284" s="23"/>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1285" s="25"/>
+      <c r="A1285" s="23"/>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1286" s="25"/>
+      <c r="A1286" s="23"/>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1287" s="25"/>
+      <c r="A1287" s="23"/>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1288" s="25"/>
+      <c r="A1288" s="23"/>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1289" s="25"/>
+      <c r="A1289" s="23"/>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1290" s="25"/>
+      <c r="A1290" s="23"/>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1291" s="25"/>
+      <c r="A1291" s="23"/>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1292" s="25"/>
+      <c r="A1292" s="23"/>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1293" s="25"/>
+      <c r="A1293" s="23"/>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1294" s="25"/>
+      <c r="A1294" s="23"/>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1295" s="25"/>
+      <c r="A1295" s="23"/>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1296" s="25"/>
+      <c r="A1296" s="23"/>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1297" s="25"/>
+      <c r="A1297" s="23"/>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1298" s="25"/>
+      <c r="A1298" s="23"/>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1299" s="25"/>
+      <c r="A1299" s="23"/>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1300" s="25"/>
+      <c r="A1300" s="23"/>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1301" s="25"/>
+      <c r="A1301" s="23"/>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1302" s="25"/>
+      <c r="A1302" s="23"/>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1303" s="25"/>
+      <c r="A1303" s="23"/>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1304" s="25"/>
+      <c r="A1304" s="23"/>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1305" s="25"/>
+      <c r="A1305" s="23"/>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1306" s="25"/>
+      <c r="A1306" s="23"/>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1307" s="25"/>
+      <c r="A1307" s="23"/>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1308" s="25"/>
+      <c r="A1308" s="23"/>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1309" s="25"/>
+      <c r="A1309" s="23"/>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1310" s="25"/>
+      <c r="A1310" s="23"/>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1311" s="25"/>
+      <c r="A1311" s="23"/>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1312" s="25"/>
+      <c r="A1312" s="23"/>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1313" s="25"/>
+      <c r="A1313" s="23"/>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1314" s="25"/>
+      <c r="A1314" s="23"/>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1315" s="25"/>
+      <c r="A1315" s="23"/>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1316" s="25"/>
+      <c r="A1316" s="23"/>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1317" s="25"/>
+      <c r="A1317" s="23"/>
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1318" s="25"/>
+      <c r="A1318" s="23"/>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1319" s="25"/>
+      <c r="A1319" s="23"/>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1320" s="25"/>
+      <c r="A1320" s="23"/>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1321" s="25"/>
+      <c r="A1321" s="23"/>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1322" s="25"/>
+      <c r="A1322" s="23"/>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1323" s="25"/>
+      <c r="A1323" s="23"/>
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1324" s="25"/>
+      <c r="A1324" s="23"/>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1325" s="25"/>
+      <c r="A1325" s="23"/>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1326" s="25"/>
+      <c r="A1326" s="23"/>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1327" s="25"/>
+      <c r="A1327" s="23"/>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1328" s="25"/>
+      <c r="A1328" s="23"/>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1329" s="25"/>
+      <c r="A1329" s="23"/>
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1330" s="25"/>
+      <c r="A1330" s="23"/>
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1331" s="25"/>
+      <c r="A1331" s="23"/>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1332" s="25"/>
+      <c r="A1332" s="23"/>
     </row>
     <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1333" s="25"/>
+      <c r="A1333" s="23"/>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1334" s="25"/>
+      <c r="A1334" s="23"/>
     </row>
     <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1335" s="25"/>
+      <c r="A1335" s="23"/>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1336" s="25"/>
+      <c r="A1336" s="23"/>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1337" s="25"/>
+      <c r="A1337" s="23"/>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1338" s="25"/>
+      <c r="A1338" s="23"/>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1339" s="25"/>
+      <c r="A1339" s="23"/>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1340" s="25"/>
+      <c r="A1340" s="23"/>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1341" s="25"/>
+      <c r="A1341" s="23"/>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1342" s="25"/>
+      <c r="A1342" s="23"/>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1343" s="25"/>
+      <c r="A1343" s="23"/>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1344" s="25"/>
+      <c r="A1344" s="23"/>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1345" s="25"/>
+      <c r="A1345" s="23"/>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1346" s="25"/>
+      <c r="A1346" s="23"/>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1347" s="25"/>
+      <c r="A1347" s="23"/>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1348" s="25"/>
+      <c r="A1348" s="23"/>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1349" s="25"/>
+      <c r="A1349" s="23"/>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1350" s="25"/>
+      <c r="A1350" s="23"/>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1351" s="25"/>
+      <c r="A1351" s="23"/>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1352" s="25"/>
+      <c r="A1352" s="23"/>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1353" s="25"/>
+      <c r="A1353" s="23"/>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1354" s="25"/>
+      <c r="A1354" s="23"/>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1355" s="25"/>
+      <c r="A1355" s="23"/>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1356" s="25"/>
+      <c r="A1356" s="23"/>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1357" s="25"/>
+      <c r="A1357" s="23"/>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1358" s="25"/>
+      <c r="A1358" s="23"/>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1359" s="25"/>
+      <c r="A1359" s="23"/>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1360" s="25"/>
+      <c r="A1360" s="23"/>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1361" s="25"/>
+      <c r="A1361" s="23"/>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1362" s="25"/>
+      <c r="A1362" s="23"/>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1363" s="25"/>
+      <c r="A1363" s="23"/>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1364" s="25"/>
+      <c r="A1364" s="23"/>
     </row>
     <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1365" s="25"/>
+      <c r="A1365" s="23"/>
     </row>
     <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1366" s="25"/>
+      <c r="A1366" s="23"/>
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1367" s="25"/>
+      <c r="A1367" s="23"/>
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1368" s="25"/>
+      <c r="A1368" s="23"/>
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1369" s="25"/>
+      <c r="A1369" s="23"/>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1370" s="25"/>
+      <c r="A1370" s="23"/>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1371" s="25"/>
+      <c r="A1371" s="23"/>
     </row>
     <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1372" s="25"/>
+      <c r="A1372" s="23"/>
     </row>
     <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1373" s="25"/>
+      <c r="A1373" s="23"/>
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1374" s="25"/>
+      <c r="A1374" s="23"/>
     </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1375" s="25"/>
+      <c r="A1375" s="23"/>
     </row>
     <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1376" s="25"/>
+      <c r="A1376" s="23"/>
     </row>
     <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1377" s="25"/>
+      <c r="A1377" s="23"/>
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1378" s="25"/>
+      <c r="A1378" s="23"/>
     </row>
     <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1379" s="25"/>
+      <c r="A1379" s="23"/>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1380" s="25"/>
+      <c r="A1380" s="23"/>
     </row>
     <row r="1381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1381" s="25"/>
+      <c r="A1381" s="23"/>
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1382" s="25"/>
+      <c r="A1382" s="23"/>
     </row>
     <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1383" s="25"/>
+      <c r="A1383" s="23"/>
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1384" s="25"/>
+      <c r="A1384" s="23"/>
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1385" s="25"/>
+      <c r="A1385" s="23"/>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1386" s="25"/>
+      <c r="A1386" s="23"/>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1387" s="25"/>
+      <c r="A1387" s="23"/>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1388" s="25"/>
+      <c r="A1388" s="23"/>
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1389" s="25"/>
+      <c r="A1389" s="23"/>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1390" s="25"/>
+      <c r="A1390" s="23"/>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1391" s="25"/>
+      <c r="A1391" s="23"/>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1392" s="25"/>
+      <c r="A1392" s="23"/>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1393" s="25"/>
+      <c r="A1393" s="23"/>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1394" s="25"/>
+      <c r="A1394" s="23"/>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1395" s="25"/>
+      <c r="A1395" s="23"/>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1396" s="25"/>
+      <c r="A1396" s="23"/>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1397" s="25"/>
+      <c r="A1397" s="23"/>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1398" s="25"/>
+      <c r="A1398" s="23"/>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1399" s="25"/>
+      <c r="A1399" s="23"/>
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1400" s="25"/>
+      <c r="A1400" s="23"/>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1401" s="25"/>
+      <c r="A1401" s="23"/>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1402" s="25"/>
+      <c r="A1402" s="23"/>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1403" s="25"/>
+      <c r="A1403" s="23"/>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1404" s="25"/>
+      <c r="A1404" s="23"/>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1405" s="25"/>
+      <c r="A1405" s="23"/>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1406" s="25"/>
+      <c r="A1406" s="23"/>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1407" s="25"/>
+      <c r="A1407" s="23"/>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1408" s="25"/>
+      <c r="A1408" s="23"/>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1409" s="25"/>
+      <c r="A1409" s="23"/>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1410" s="25"/>
+      <c r="A1410" s="23"/>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1411" s="25"/>
+      <c r="A1411" s="23"/>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1412" s="25"/>
+      <c r="A1412" s="23"/>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1413" s="25"/>
+      <c r="A1413" s="23"/>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1414" s="25"/>
+      <c r="A1414" s="23"/>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1415" s="25"/>
+      <c r="A1415" s="23"/>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1416" s="25"/>
+      <c r="A1416" s="23"/>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1417" s="25"/>
+      <c r="A1417" s="23"/>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1418" s="25"/>
+      <c r="A1418" s="23"/>
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1419" s="25"/>
+      <c r="A1419" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
+++ b/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1EA983-E197-412E-BFC1-7BB4E0D73F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8932A4A-D2BF-45F8-9FAC-E97C4C60C0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="171">
   <si>
     <t>I</t>
   </si>
@@ -366,6 +366,189 @@
   </si>
   <si>
     <t>Portfolio_Month</t>
+  </si>
+  <si>
+    <t>IS_Service_type</t>
+  </si>
+  <si>
+    <t>IS_Service_type_Month</t>
+  </si>
+  <si>
+    <t>IS_Product_type</t>
+  </si>
+  <si>
+    <t>IS_Product_type_Month</t>
+  </si>
+  <si>
+    <t>Pdr_Proj</t>
+  </si>
+  <si>
+    <t>Pdr_Proj_Month</t>
+  </si>
+  <si>
+    <t>Proj_Pdr</t>
+  </si>
+  <si>
+    <t>Proj_Pdr_Month</t>
+  </si>
+  <si>
+    <t>FN_Month</t>
+  </si>
+  <si>
+    <t>UHCost_KV1</t>
+  </si>
+  <si>
+    <t>UMCost_KV1</t>
+  </si>
+  <si>
+    <t>UHCost_KV2</t>
+  </si>
+  <si>
+    <t>UMCost_KV2</t>
+  </si>
+  <si>
+    <t>UHCost_KV3</t>
+  </si>
+  <si>
+    <t>UMCost_KV3</t>
+  </si>
+  <si>
+    <t>UHCost_KV4</t>
+  </si>
+  <si>
+    <t>UMCost_KV4</t>
+  </si>
+  <si>
+    <t>ISDogName</t>
+  </si>
+  <si>
+    <t>Тип сервиса (ИСУ, КИС, ЛИС, ПУ, ..)</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>Тип системы (SAP, БК, ЛИМС, MES,…)</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Группировка Подразделение+Проект</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Группировка Проект+Подразделение</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Портфель проектов</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>Признак отправлять сообщение лично или в общей массе</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Почтовый адрес пользователя</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Почтовый адрес руководителя данного пользователя</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Доходный договор</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Функциональное направление (или подразделение)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Часовая ставка в 1-м квартале</t>
+  </si>
+  <si>
+    <t>Месячная ставка в 1-м квартале</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Часовая ставка во 2-м квартале</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Месячная ставка во 2-м квартале</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Часовая ставка в 3-м квартале</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>Месячная ставка в 3-м квартале</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>Часовая ставка в 4-м квартале</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Месячная ставка в 4-м квартале</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Название ИС из договора</t>
+  </si>
+  <si>
+    <t>BO</t>
   </si>
 </sst>
 </file>
@@ -923,6 +1106,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,12 +1137,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3004,26 +3187,26 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3031,42 +3214,42 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="40" t="s">
         <v>16</v>
       </c>
       <c r="P6" s="3"/>
@@ -3076,20 +3259,20 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3097,7 +3280,7 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="22"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
@@ -5183,12 +5366,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:AW1"/>
+  <dimension ref="A1:BO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" sqref="A1:AW1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5234,153 +5417,207 @@
     <col min="39" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="X1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Y1" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="Z1" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AB1" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AC1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AD1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AE1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AF1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AG1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="AH1" s="41" t="s">
+      <c r="AH1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="AJ1" s="41" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AK1" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="AL1" s="41" t="s">
+      <c r="AL1" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="AM1" s="41" t="s">
+      <c r="AM1" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="AN1" s="41" t="s">
+      <c r="AN1" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="AO1" s="41" t="s">
+      <c r="AO1" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="AP1" s="41" t="s">
+      <c r="AP1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="AQ1" s="41" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="AR1" s="41" t="s">
+      <c r="AR1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="41" t="s">
+      <c r="AS1" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AT1" s="41" t="s">
+      <c r="AT1" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AU1" s="41" t="s">
+      <c r="AU1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AV1" s="41" t="s">
+      <c r="AV1" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="AW1" s="41" t="s">
+      <c r="AW1" s="31" t="s">
         <v>109</v>
+      </c>
+      <c r="AX1" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ1" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA1" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC1" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD1" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE1" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF1" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG1" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH1" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI1" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ1" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK1" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL1" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM1" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN1" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO1" s="31" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -9684,10 +9921,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9906,6 +10143,246 @@
         <v>47</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>

--- a/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
+++ b/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8932A4A-D2BF-45F8-9FAC-E97C4C60C0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F787364-C5AB-4B0C-8288-8B88B92C4C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="171">
-  <si>
-    <t>I</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="139">
   <si>
     <t>G</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
   <si>
     <t>Идентификатор
@@ -95,9 +89,6 @@
     <t>Подразделение</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>Функциональное направление + проект</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
     <t>Функциональное направление + проект + ФИО</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -140,9 +125,6 @@
     <t>Подразделение + ФИО</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
@@ -152,9 +134,6 @@
     <t>Подразделение + ФИО + проект</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -164,9 +143,6 @@
     <t>Менеджер проекта + проект</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -176,18 +152,12 @@
     <t>Менеджер проекта + проект + ФИО</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
     <t>ShortProject</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -221,9 +191,6 @@
     <t>Pdr_User_ProjType_Month</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>AE</t>
   </si>
   <si>
@@ -239,15 +206,9 @@
     <t>ПодТип проекта</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>AI</t>
   </si>
   <si>
-    <t>AH</t>
-  </si>
-  <si>
     <t>Подразделение + ФИО + Тип Проекта</t>
   </si>
   <si>
@@ -257,9 +218,6 @@
     <t>Подразделение + ФИО + ПодТип Проекта</t>
   </si>
   <si>
-    <t>AJ</t>
-  </si>
-  <si>
     <t>AK</t>
   </si>
   <si>
@@ -425,78 +383,48 @@
     <t>Тип сервиса (ИСУ, КИС, ЛИС, ПУ, ..)</t>
   </si>
   <si>
-    <t>AX</t>
-  </si>
-  <si>
     <t>AY</t>
   </si>
   <si>
     <t>Тип системы (SAP, БК, ЛИМС, MES,…)</t>
   </si>
   <si>
-    <t>AZ</t>
-  </si>
-  <si>
     <t>BA</t>
   </si>
   <si>
     <t>Группировка Подразделение+Проект</t>
   </si>
   <si>
-    <t>BB</t>
-  </si>
-  <si>
     <t>BC</t>
   </si>
   <si>
     <t>Группировка Проект+Подразделение</t>
   </si>
   <si>
-    <t>BD</t>
-  </si>
-  <si>
     <t>BE</t>
   </si>
   <si>
     <t>Портфель проектов</t>
   </si>
   <si>
-    <t>AV</t>
-  </si>
-  <si>
     <t>AW</t>
   </si>
   <si>
     <t>Признак отправлять сообщение лично или в общей массе</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
     <t>Почтовый адрес пользователя</t>
   </si>
   <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>Почтовый адрес руководителя данного пользователя</t>
   </si>
   <si>
-    <t>AT</t>
-  </si>
-  <si>
     <t>Доходный договор</t>
   </si>
   <si>
-    <t>AU</t>
-  </si>
-  <si>
     <t>Функциональное направление (или подразделение)</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>BF</t>
   </si>
   <si>
@@ -506,49 +434,25 @@
     <t>Месячная ставка в 1-м квартале</t>
   </si>
   <si>
-    <t>BG</t>
-  </si>
-  <si>
     <t>Часовая ставка во 2-м квартале</t>
   </si>
   <si>
-    <t>BH</t>
-  </si>
-  <si>
     <t>Месячная ставка во 2-м квартале</t>
   </si>
   <si>
-    <t>BI</t>
-  </si>
-  <si>
     <t>Часовая ставка в 3-м квартале</t>
   </si>
   <si>
-    <t>BJ</t>
-  </si>
-  <si>
     <t>Месячная ставка в 3-м квартале</t>
   </si>
   <si>
-    <t>BK</t>
-  </si>
-  <si>
     <t>Часовая ставка в 4-м квартале</t>
   </si>
   <si>
-    <t>BL</t>
-  </si>
-  <si>
     <t>Месячная ставка в 4-м квартале</t>
   </si>
   <si>
-    <t>BM</t>
-  </si>
-  <si>
     <t>Название ИС из договора</t>
-  </si>
-  <si>
-    <t>BO</t>
   </si>
 </sst>
 </file>
@@ -3045,10 +2949,10 @@
         <v/>
       </c>
       <c r="B1" s="9" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D1" s="8">
         <f t="shared" ref="D1:O1" ca="1" si="0">SUM(D6:D40)</f>
@@ -3105,7 +3009,7 @@
         <v/>
       </c>
       <c r="C2" s="21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" ref="D2:O2" ca="1" si="1">SUBTOTAL(9,D6:D41)</f>
@@ -3164,14 +3068,14 @@
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B4" s="15" t="str">
         <f>VLOOKUP(УникальныеСписки!A1,Настройки!A1:D50,3,FALSE)</f>
         <v>G</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="29" t="str">
         <f>VLOOKUP(УникальныеСписки!A1,Настройки!A1:D50,4,FALSE)</f>
@@ -3188,13 +3092,13 @@
         <v/>
       </c>
       <c r="B5" s="37" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
@@ -3217,40 +3121,40 @@
       <c r="B6" s="38"/>
       <c r="C6" s="36"/>
       <c r="D6" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="G6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="H6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="I6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="J6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="K6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="L6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="M6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="N6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="O6" s="40" t="s">
         <v>14</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="40" t="s">
-        <v>16</v>
       </c>
       <c r="P6" s="3"/>
     </row>
@@ -5371,7 +5275,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5414,210 +5318,239 @@
     <col min="36" max="36" width="21.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="28.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="32.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="11"/>
+    <col min="39" max="39" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="68" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="AB1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="AC1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="30" t="s">
+      <c r="AD1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="AG1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="AJ1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="30" t="s">
+      <c r="AL1" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="30" t="s">
+      <c r="AM1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="30" t="s">
+      <c r="AN1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="30" t="s">
+      <c r="AO1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AP1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AR1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AS1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="AD1" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE1" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF1" s="31" t="s">
+      <c r="AT1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH1" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI1" s="31" t="s">
+      <c r="AU1" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="AJ1" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK1" s="31" t="s">
+      <c r="AV1" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="AL1" s="31" t="s">
+      <c r="AW1" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="AM1" s="31" t="s">
+      <c r="AX1" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY1" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ1" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA1" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="AN1" s="31" t="s">
+      <c r="BB1" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="AO1" s="31" t="s">
+      <c r="BC1" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="AP1" s="31" t="s">
+      <c r="BD1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="AQ1" s="31" t="s">
+      <c r="BE1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="AR1" s="31" t="s">
+      <c r="BF1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="31" t="s">
+      <c r="BG1" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AT1" s="31" t="s">
+      <c r="BH1" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AU1" s="31" t="s">
+      <c r="BI1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AV1" s="31" t="s">
+      <c r="BJ1" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="AW1" s="31" t="s">
+      <c r="BK1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="AX1" s="31" t="s">
+      <c r="BL1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="AY1" s="31" t="s">
+      <c r="BM1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="AZ1" s="31" t="s">
+      <c r="BN1" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="BA1" s="31" t="s">
+      <c r="BO1" s="31" t="s">
         <v>113</v>
-      </c>
-      <c r="BB1" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC1" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD1" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="BE1" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF1" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="BG1" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="BH1" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="BI1" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ1" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="BK1" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL1" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM1" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="BN1" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="BO1" s="31" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5646,7 +5579,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B1" s="18" t="str">
         <f>VLOOKUP(A1,Настройки!A1:B37,2,FALSE)</f>
@@ -9924,7 +9857,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D34"/>
+      <selection activeCell="C1" sqref="C1:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9935,451 +9868,485 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A1,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>D</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A2,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>E</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A3,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>X</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A4,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>G</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="C5" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A5,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>H</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A6,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>AH</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="C7" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A7,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>AD</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A8,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>AJ</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A9,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>I</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A10,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>L</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A11,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>N</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A12,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>P</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A13,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>R</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A14,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>T</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A15,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>V</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>129</v>
+        <v>114</v>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A16,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>AX</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>132</v>
+        <v>116</v>
+      </c>
+      <c r="C17" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A17,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>AZ</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>135</v>
+        <v>118</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A18,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BB</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>138</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A19,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BD</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>141</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A20,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>AV</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>144</v>
+        <v>124</v>
+      </c>
+      <c r="C21" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A21,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>AR</v>
       </c>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
+      </c>
+      <c r="C22" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A22,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>AS</v>
       </c>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
+      </c>
+      <c r="C23" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A23,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>AT</v>
       </c>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>150</v>
+        <v>127</v>
+      </c>
+      <c r="C24" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A24,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>AU</v>
       </c>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>152</v>
+        <v>128</v>
+      </c>
+      <c r="C25" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A25,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>C</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>153</v>
+        <v>130</v>
+      </c>
+      <c r="C26" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A26,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BG</v>
       </c>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>156</v>
+        <v>131</v>
+      </c>
+      <c r="C27" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A27,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BH</v>
       </c>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>158</v>
+        <v>132</v>
+      </c>
+      <c r="C28" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A28,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BI</v>
       </c>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>160</v>
+        <v>133</v>
+      </c>
+      <c r="C29" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A29,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BJ</v>
       </c>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>162</v>
+        <v>134</v>
+      </c>
+      <c r="C30" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A30,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BK</v>
       </c>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>164</v>
+        <v>135</v>
+      </c>
+      <c r="C31" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A31,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BL</v>
       </c>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>166</v>
+        <v>136</v>
+      </c>
+      <c r="C32" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A32,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BM</v>
       </c>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>168</v>
+        <v>137</v>
+      </c>
+      <c r="C33" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A33,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BN</v>
       </c>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>170</v>
+        <v>138</v>
+      </c>
+      <c r="C34" s="11" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A34,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BO</v>
       </c>
       <c r="D34" s="11"/>
     </row>

--- a/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
+++ b/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F787364-C5AB-4B0C-8288-8B88B92C4C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934A9E0A-B19E-42C1-8679-F74AB947DEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,15 @@
     <sheet name="УникальныеСписки" sheetId="4" r:id="rId3"/>
     <sheet name="Настройки" sheetId="2" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_ВозможныеСписки">Настройки!$A$1:$A$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ИсходныеДанные!$A$1:$AW$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ИсходныеДанные!$A$1:$CC$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Отчет!$C$8:$O$40</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="150">
   <si>
     <t>G</t>
   </si>
@@ -453,6 +456,39 @@
   </si>
   <si>
     <t>Название ИС из договора</t>
+  </si>
+  <si>
+    <t>SumUserFHours</t>
+  </si>
+  <si>
+    <t>SumUserFactFTE</t>
+  </si>
+  <si>
+    <t>SumUserFactFTEUR</t>
+  </si>
+  <si>
+    <t>HourTo1FTE</t>
+  </si>
+  <si>
+    <t>HourTo1FTE_Math</t>
+  </si>
+  <si>
+    <t>_________________</t>
+  </si>
+  <si>
+    <t>Сумма часов по пользователю в месяце</t>
+  </si>
+  <si>
+    <t>Сумма FTE по пользователю в месяце, округлённое</t>
+  </si>
+  <si>
+    <t>Сумма FTE по пользователю в месяце, без округлёния</t>
+  </si>
+  <si>
+    <t>Часы приведёные к 1 FTE.</t>
+  </si>
+  <si>
+    <t>Часы приведёные к 1 FTE, но если FTE&lt;0, то не меняет</t>
   </si>
 </sst>
 </file>
@@ -2657,6 +2693,271 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Отчет"/>
+      <sheetName val="ИсходныеДанные"/>
+      <sheetName val="УникальныеСписки"/>
+      <sheetName val="Настройки"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>FDate</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Month</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>FN</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Division</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>User</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Project</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>ProjectType</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>ProjectSubType</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>ProjectManager</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>PlanFTE</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>FactFTE</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>FN_Proj</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>FN_Proj_Month</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>FN_Proj_User</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>FN_Proj_User_Month</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>Pdr_User</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>Pdr_User_Month</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>Pdr_User_Proj</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>Pdr_User_Proj_Month</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>ProjMang_Proj</v>
+          </cell>
+          <cell r="U1" t="str">
+            <v>ProjMang_Proj_Month</v>
+          </cell>
+          <cell r="V1" t="str">
+            <v>ProjMang_Proj_User</v>
+          </cell>
+          <cell r="W1" t="str">
+            <v>ProjMang_Proj_User_Month</v>
+          </cell>
+          <cell r="X1" t="str">
+            <v>ShortProject</v>
+          </cell>
+          <cell r="Y1" t="str">
+            <v>ShortProject_Month</v>
+          </cell>
+          <cell r="Z1" t="str">
+            <v>Division_Month</v>
+          </cell>
+          <cell r="AA1" t="str">
+            <v>User_Month</v>
+          </cell>
+          <cell r="AB1" t="str">
+            <v>ProjectType_Month</v>
+          </cell>
+          <cell r="AC1" t="str">
+            <v>ProjectManager_Month</v>
+          </cell>
+          <cell r="AD1" t="str">
+            <v>Pdr_User_ProjType</v>
+          </cell>
+          <cell r="AE1" t="str">
+            <v>Pdr_User_ProjType_Month</v>
+          </cell>
+          <cell r="AF1" t="str">
+            <v>FactHours</v>
+          </cell>
+          <cell r="AG1" t="str">
+            <v>ProjectTypeDescription</v>
+          </cell>
+          <cell r="AH1" t="str">
+            <v>ProjectSubTypeDescription</v>
+          </cell>
+          <cell r="AI1" t="str">
+            <v>ProjectSubType_Month</v>
+          </cell>
+          <cell r="AJ1" t="str">
+            <v>Pdr_User_ProjSubType</v>
+          </cell>
+          <cell r="AK1" t="str">
+            <v>Pdr_User_ProjSubType_Month</v>
+          </cell>
+          <cell r="AL1" t="str">
+            <v>ProjectSubTypeDescription_Month</v>
+          </cell>
+          <cell r="AM1" t="str">
+            <v>pVacasia</v>
+          </cell>
+          <cell r="AN1" t="str">
+            <v>Northern</v>
+          </cell>
+          <cell r="AO1" t="str">
+            <v>JustUserName</v>
+          </cell>
+          <cell r="AP1" t="str">
+            <v>UserHourCost</v>
+          </cell>
+          <cell r="AQ1" t="str">
+            <v>UserMonthCost</v>
+          </cell>
+          <cell r="AR1" t="str">
+            <v>Personal_email</v>
+          </cell>
+          <cell r="AS1" t="str">
+            <v>user_email</v>
+          </cell>
+          <cell r="AT1" t="str">
+            <v>boss_email</v>
+          </cell>
+          <cell r="AU1" t="str">
+            <v>Contract</v>
+          </cell>
+          <cell r="AV1" t="str">
+            <v>Portfolio</v>
+          </cell>
+          <cell r="AW1" t="str">
+            <v>Portfolio_Month</v>
+          </cell>
+          <cell r="AX1" t="str">
+            <v>IS_Service_type</v>
+          </cell>
+          <cell r="AY1" t="str">
+            <v>IS_Service_type_Month</v>
+          </cell>
+          <cell r="AZ1" t="str">
+            <v>IS_Product_type</v>
+          </cell>
+          <cell r="BA1" t="str">
+            <v>IS_Product_type_Month</v>
+          </cell>
+          <cell r="BB1" t="str">
+            <v>Pdr_Proj</v>
+          </cell>
+          <cell r="BC1" t="str">
+            <v>Pdr_Proj_Month</v>
+          </cell>
+          <cell r="BD1" t="str">
+            <v>Proj_Pdr</v>
+          </cell>
+          <cell r="BE1" t="str">
+            <v>Proj_Pdr_Month</v>
+          </cell>
+          <cell r="BF1" t="str">
+            <v>FN_Month</v>
+          </cell>
+          <cell r="BG1" t="str">
+            <v>UHCost_KV1</v>
+          </cell>
+          <cell r="BH1" t="str">
+            <v>UMCost_KV1</v>
+          </cell>
+          <cell r="BI1" t="str">
+            <v>UHCost_KV2</v>
+          </cell>
+          <cell r="BJ1" t="str">
+            <v>UMCost_KV2</v>
+          </cell>
+          <cell r="BK1" t="str">
+            <v>UHCost_KV3</v>
+          </cell>
+          <cell r="BL1" t="str">
+            <v>UMCost_KV3</v>
+          </cell>
+          <cell r="BM1" t="str">
+            <v>UHCost_KV4</v>
+          </cell>
+          <cell r="BN1" t="str">
+            <v>UMCost_KV4</v>
+          </cell>
+          <cell r="BO1" t="str">
+            <v>ISDogName</v>
+          </cell>
+          <cell r="BP1" t="str">
+            <v>SumUserFHours</v>
+          </cell>
+          <cell r="BQ1" t="str">
+            <v>SumUserFactFTE</v>
+          </cell>
+          <cell r="BR1" t="str">
+            <v>SumUserFactFTEUR</v>
+          </cell>
+          <cell r="BS1" t="str">
+            <v>HourTo1FTE</v>
+          </cell>
+          <cell r="BT1" t="str">
+            <v>HourTo1FTE_Math</v>
+          </cell>
+          <cell r="BU1" t="str">
+            <v>_________________</v>
+          </cell>
+          <cell r="BV1" t="str">
+            <v>_________________</v>
+          </cell>
+          <cell r="BW1" t="str">
+            <v>_________________</v>
+          </cell>
+          <cell r="BX1" t="str">
+            <v>_________________</v>
+          </cell>
+          <cell r="BY1" t="str">
+            <v>_________________</v>
+          </cell>
+          <cell r="BZ1" t="str">
+            <v>_________________</v>
+          </cell>
+          <cell r="CA1" t="str">
+            <v>_________________</v>
+          </cell>
+          <cell r="CB1" t="str">
+            <v>_________________</v>
+          </cell>
+          <cell r="CC1" t="str">
+            <v>_________________</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3071,14 +3372,14 @@
         <v>83</v>
       </c>
       <c r="B4" s="15" t="str">
-        <f>VLOOKUP(УникальныеСписки!A1,Настройки!A1:D50,3,FALSE)</f>
+        <f ca="1">VLOOKUP(УникальныеСписки!A1,Настройки!A1:D50,3,FALSE)</f>
         <v>G</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="29" t="str">
-        <f>VLOOKUP(УникальныеСписки!A1,Настройки!A1:D50,4,FALSE)</f>
+        <f ca="1">VLOOKUP(УникальныеСписки!A1,Настройки!A1:D50,4,FALSE)</f>
         <v>AB</v>
       </c>
       <c r="E4" s="15">
@@ -5270,7 +5571,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:BO1"/>
+  <dimension ref="A1:CC1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5284,8 +5585,8 @@
     <col min="2" max="2" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="11" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
@@ -5314,10 +5615,10 @@
     <col min="32" max="32" width="14.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="26.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="30.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="32.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="33.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="37.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
@@ -5329,28 +5630,34 @@
     <col min="47" max="47" width="13" style="11" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="20.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="68" max="16384" width="9.140625" style="11"/>
+    <col min="50" max="50" width="19.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27" style="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="27.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="17.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="23" style="11" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16" style="11" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22" style="11" bestFit="1" customWidth="1"/>
+    <col min="73" max="81" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="82" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>61</v>
       </c>
@@ -5552,9 +5859,51 @@
       <c r="BO1" s="31" t="s">
         <v>113</v>
       </c>
+      <c r="BP1" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ1" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="BR1" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS1" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="BT1" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="BV1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="BX1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="BY1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="CA1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC1" s="31" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AW1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:CC1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
@@ -5582,7 +5931,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="18" t="str">
-        <f>VLOOKUP(A1,Настройки!A1:B37,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,Настройки!A1:B37,2,FALSE)</f>
         <v>Тип проекта</v>
       </c>
     </row>
@@ -9854,10 +10203,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C34"/>
+      <selection sqref="A1:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9874,7 +10223,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A1,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A1,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>D</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -9889,7 +10238,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A2,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A2,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>E</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -9904,7 +10253,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A3,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A3,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>X</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -9919,7 +10268,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A4,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A4,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>G</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -9934,7 +10283,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A5,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A5,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>H</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -9949,7 +10298,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A6,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A6,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>AH</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -9964,7 +10313,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A7,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A7,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>AD</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -9979,7 +10328,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A8,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A8,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>AJ</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -9994,7 +10343,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A9,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A9,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>I</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -10009,7 +10358,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A10,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A10,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>L</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -10024,7 +10373,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A11,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A11,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>N</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -10039,7 +10388,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A12,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A12,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>P</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -10054,7 +10403,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A13,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A13,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>R</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -10069,7 +10418,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A14,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A14,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>T</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -10084,7 +10433,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A15,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A15,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>V</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -10099,7 +10448,7 @@
         <v>114</v>
       </c>
       <c r="C16" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A16,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A16,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>AX</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -10114,7 +10463,7 @@
         <v>116</v>
       </c>
       <c r="C17" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A17,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A17,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>AZ</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -10129,7 +10478,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A18,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A18,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>BB</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -10144,7 +10493,7 @@
         <v>120</v>
       </c>
       <c r="C19" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A19,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A19,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>BD</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -10159,7 +10508,7 @@
         <v>122</v>
       </c>
       <c r="C20" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A20,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A20,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>AV</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -10174,7 +10523,7 @@
         <v>124</v>
       </c>
       <c r="C21" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A21,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A21,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>AR</v>
       </c>
       <c r="D21" s="11"/>
@@ -10187,7 +10536,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A22,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A22,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>AS</v>
       </c>
       <c r="D22" s="11"/>
@@ -10200,7 +10549,7 @@
         <v>126</v>
       </c>
       <c r="C23" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A23,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A23,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>AT</v>
       </c>
       <c r="D23" s="11"/>
@@ -10213,7 +10562,7 @@
         <v>127</v>
       </c>
       <c r="C24" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A24,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A24,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>AU</v>
       </c>
       <c r="D24" s="11"/>
@@ -10226,7 +10575,7 @@
         <v>128</v>
       </c>
       <c r="C25" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A25,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A25,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>C</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -10241,7 +10590,7 @@
         <v>130</v>
       </c>
       <c r="C26" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A26,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A26,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>BG</v>
       </c>
       <c r="D26" s="11"/>
@@ -10254,7 +10603,7 @@
         <v>131</v>
       </c>
       <c r="C27" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A27,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A27,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>BH</v>
       </c>
       <c r="D27" s="11"/>
@@ -10267,7 +10616,7 @@
         <v>132</v>
       </c>
       <c r="C28" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A28,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A28,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>BI</v>
       </c>
       <c r="D28" s="11"/>
@@ -10280,7 +10629,7 @@
         <v>133</v>
       </c>
       <c r="C29" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A29,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A29,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>BJ</v>
       </c>
       <c r="D29" s="11"/>
@@ -10293,7 +10642,7 @@
         <v>134</v>
       </c>
       <c r="C30" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A30,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A30,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>BK</v>
       </c>
       <c r="D30" s="11"/>
@@ -10306,7 +10655,7 @@
         <v>135</v>
       </c>
       <c r="C31" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A31,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A31,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>BL</v>
       </c>
       <c r="D31" s="11"/>
@@ -10319,7 +10668,7 @@
         <v>136</v>
       </c>
       <c r="C32" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A32,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A32,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>BM</v>
       </c>
       <c r="D32" s="11"/>
@@ -10332,7 +10681,7 @@
         <v>137</v>
       </c>
       <c r="C33" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A33,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A33,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>BN</v>
       </c>
       <c r="D33" s="11"/>
@@ -10345,10 +10694,75 @@
         <v>138</v>
       </c>
       <c r="C34" s="11" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A34,ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A34,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
         <v>BO</v>
       </c>
       <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="11" t="str">
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A35,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BP</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="11" t="str">
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A36,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BQ</v>
+      </c>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="11" t="str">
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A37,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BR</v>
+      </c>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="11" t="str">
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A38,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BS</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="11" t="str">
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A39,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <v>BT</v>
+      </c>
+      <c r="D39" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
+++ b/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934A9E0A-B19E-42C1-8679-F74AB947DEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC52374-9589-42E2-890D-12678F8F938F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,9 +13,6 @@
     <sheet name="УникальныеСписки" sheetId="4" r:id="rId3"/>
     <sheet name="Настройки" sheetId="2" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_ВозможныеСписки">Настройки!$A$1:$A$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ИсходныеДанные!$A$1:$CC$1</definedName>
@@ -2693,271 +2690,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Отчет"/>
-      <sheetName val="ИсходныеДанные"/>
-      <sheetName val="УникальныеСписки"/>
-      <sheetName val="Настройки"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>FDate</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Month</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>FN</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Division</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>User</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Project</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>ProjectType</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>ProjectSubType</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>ProjectManager</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>PlanFTE</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>FactFTE</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>FN_Proj</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>FN_Proj_Month</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>FN_Proj_User</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>FN_Proj_User_Month</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>Pdr_User</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>Pdr_User_Month</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>Pdr_User_Proj</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>Pdr_User_Proj_Month</v>
-          </cell>
-          <cell r="T1" t="str">
-            <v>ProjMang_Proj</v>
-          </cell>
-          <cell r="U1" t="str">
-            <v>ProjMang_Proj_Month</v>
-          </cell>
-          <cell r="V1" t="str">
-            <v>ProjMang_Proj_User</v>
-          </cell>
-          <cell r="W1" t="str">
-            <v>ProjMang_Proj_User_Month</v>
-          </cell>
-          <cell r="X1" t="str">
-            <v>ShortProject</v>
-          </cell>
-          <cell r="Y1" t="str">
-            <v>ShortProject_Month</v>
-          </cell>
-          <cell r="Z1" t="str">
-            <v>Division_Month</v>
-          </cell>
-          <cell r="AA1" t="str">
-            <v>User_Month</v>
-          </cell>
-          <cell r="AB1" t="str">
-            <v>ProjectType_Month</v>
-          </cell>
-          <cell r="AC1" t="str">
-            <v>ProjectManager_Month</v>
-          </cell>
-          <cell r="AD1" t="str">
-            <v>Pdr_User_ProjType</v>
-          </cell>
-          <cell r="AE1" t="str">
-            <v>Pdr_User_ProjType_Month</v>
-          </cell>
-          <cell r="AF1" t="str">
-            <v>FactHours</v>
-          </cell>
-          <cell r="AG1" t="str">
-            <v>ProjectTypeDescription</v>
-          </cell>
-          <cell r="AH1" t="str">
-            <v>ProjectSubTypeDescription</v>
-          </cell>
-          <cell r="AI1" t="str">
-            <v>ProjectSubType_Month</v>
-          </cell>
-          <cell r="AJ1" t="str">
-            <v>Pdr_User_ProjSubType</v>
-          </cell>
-          <cell r="AK1" t="str">
-            <v>Pdr_User_ProjSubType_Month</v>
-          </cell>
-          <cell r="AL1" t="str">
-            <v>ProjectSubTypeDescription_Month</v>
-          </cell>
-          <cell r="AM1" t="str">
-            <v>pVacasia</v>
-          </cell>
-          <cell r="AN1" t="str">
-            <v>Northern</v>
-          </cell>
-          <cell r="AO1" t="str">
-            <v>JustUserName</v>
-          </cell>
-          <cell r="AP1" t="str">
-            <v>UserHourCost</v>
-          </cell>
-          <cell r="AQ1" t="str">
-            <v>UserMonthCost</v>
-          </cell>
-          <cell r="AR1" t="str">
-            <v>Personal_email</v>
-          </cell>
-          <cell r="AS1" t="str">
-            <v>user_email</v>
-          </cell>
-          <cell r="AT1" t="str">
-            <v>boss_email</v>
-          </cell>
-          <cell r="AU1" t="str">
-            <v>Contract</v>
-          </cell>
-          <cell r="AV1" t="str">
-            <v>Portfolio</v>
-          </cell>
-          <cell r="AW1" t="str">
-            <v>Portfolio_Month</v>
-          </cell>
-          <cell r="AX1" t="str">
-            <v>IS_Service_type</v>
-          </cell>
-          <cell r="AY1" t="str">
-            <v>IS_Service_type_Month</v>
-          </cell>
-          <cell r="AZ1" t="str">
-            <v>IS_Product_type</v>
-          </cell>
-          <cell r="BA1" t="str">
-            <v>IS_Product_type_Month</v>
-          </cell>
-          <cell r="BB1" t="str">
-            <v>Pdr_Proj</v>
-          </cell>
-          <cell r="BC1" t="str">
-            <v>Pdr_Proj_Month</v>
-          </cell>
-          <cell r="BD1" t="str">
-            <v>Proj_Pdr</v>
-          </cell>
-          <cell r="BE1" t="str">
-            <v>Proj_Pdr_Month</v>
-          </cell>
-          <cell r="BF1" t="str">
-            <v>FN_Month</v>
-          </cell>
-          <cell r="BG1" t="str">
-            <v>UHCost_KV1</v>
-          </cell>
-          <cell r="BH1" t="str">
-            <v>UMCost_KV1</v>
-          </cell>
-          <cell r="BI1" t="str">
-            <v>UHCost_KV2</v>
-          </cell>
-          <cell r="BJ1" t="str">
-            <v>UMCost_KV2</v>
-          </cell>
-          <cell r="BK1" t="str">
-            <v>UHCost_KV3</v>
-          </cell>
-          <cell r="BL1" t="str">
-            <v>UMCost_KV3</v>
-          </cell>
-          <cell r="BM1" t="str">
-            <v>UHCost_KV4</v>
-          </cell>
-          <cell r="BN1" t="str">
-            <v>UMCost_KV4</v>
-          </cell>
-          <cell r="BO1" t="str">
-            <v>ISDogName</v>
-          </cell>
-          <cell r="BP1" t="str">
-            <v>SumUserFHours</v>
-          </cell>
-          <cell r="BQ1" t="str">
-            <v>SumUserFactFTE</v>
-          </cell>
-          <cell r="BR1" t="str">
-            <v>SumUserFactFTEUR</v>
-          </cell>
-          <cell r="BS1" t="str">
-            <v>HourTo1FTE</v>
-          </cell>
-          <cell r="BT1" t="str">
-            <v>HourTo1FTE_Math</v>
-          </cell>
-          <cell r="BU1" t="str">
-            <v>_________________</v>
-          </cell>
-          <cell r="BV1" t="str">
-            <v>_________________</v>
-          </cell>
-          <cell r="BW1" t="str">
-            <v>_________________</v>
-          </cell>
-          <cell r="BX1" t="str">
-            <v>_________________</v>
-          </cell>
-          <cell r="BY1" t="str">
-            <v>_________________</v>
-          </cell>
-          <cell r="BZ1" t="str">
-            <v>_________________</v>
-          </cell>
-          <cell r="CA1" t="str">
-            <v>_________________</v>
-          </cell>
-          <cell r="CB1" t="str">
-            <v>_________________</v>
-          </cell>
-          <cell r="CC1" t="str">
-            <v>_________________</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10206,7 +9938,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D39"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10223,7 +9955,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A1,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A1,INDIRECT("ИсходныеДанные!$A$1:$DD$1"),0,1),4),1,"")</f>
         <v>D</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -10238,7 +9970,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A2,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ref="C2:C39" ca="1" si="0">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A2,INDIRECT("ИсходныеДанные!$A$1:$DD$1"),0,1),4),1,"")</f>
         <v>E</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -10253,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A3,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>X</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -10268,7 +10000,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A4,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>G</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -10283,7 +10015,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A5,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>H</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -10298,7 +10030,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A6,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>AH</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -10313,7 +10045,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A7,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>AD</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -10328,7 +10060,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A8,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>AJ</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -10343,7 +10075,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A9,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>I</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -10358,7 +10090,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A10,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>L</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -10373,7 +10105,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A11,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>N</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -10388,7 +10120,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A12,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>P</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -10403,7 +10135,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A13,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>R</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -10418,7 +10150,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A14,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>T</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -10433,7 +10165,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A15,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>V</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -10448,7 +10180,7 @@
         <v>114</v>
       </c>
       <c r="C16" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A16,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>AX</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -10463,7 +10195,7 @@
         <v>116</v>
       </c>
       <c r="C17" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A17,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>AZ</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -10478,7 +10210,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A18,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BB</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -10493,7 +10225,7 @@
         <v>120</v>
       </c>
       <c r="C19" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A19,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BD</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -10508,7 +10240,7 @@
         <v>122</v>
       </c>
       <c r="C20" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A20,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>AV</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -10523,7 +10255,7 @@
         <v>124</v>
       </c>
       <c r="C21" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A21,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>AR</v>
       </c>
       <c r="D21" s="11"/>
@@ -10536,7 +10268,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A22,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>AS</v>
       </c>
       <c r="D22" s="11"/>
@@ -10549,7 +10281,7 @@
         <v>126</v>
       </c>
       <c r="C23" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A23,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>AT</v>
       </c>
       <c r="D23" s="11"/>
@@ -10562,7 +10294,7 @@
         <v>127</v>
       </c>
       <c r="C24" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A24,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>AU</v>
       </c>
       <c r="D24" s="11"/>
@@ -10575,7 +10307,7 @@
         <v>128</v>
       </c>
       <c r="C25" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A25,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -10590,7 +10322,7 @@
         <v>130</v>
       </c>
       <c r="C26" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A26,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BG</v>
       </c>
       <c r="D26" s="11"/>
@@ -10603,7 +10335,7 @@
         <v>131</v>
       </c>
       <c r="C27" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A27,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BH</v>
       </c>
       <c r="D27" s="11"/>
@@ -10616,7 +10348,7 @@
         <v>132</v>
       </c>
       <c r="C28" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A28,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BI</v>
       </c>
       <c r="D28" s="11"/>
@@ -10629,7 +10361,7 @@
         <v>133</v>
       </c>
       <c r="C29" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A29,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BJ</v>
       </c>
       <c r="D29" s="11"/>
@@ -10642,7 +10374,7 @@
         <v>134</v>
       </c>
       <c r="C30" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A30,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BK</v>
       </c>
       <c r="D30" s="11"/>
@@ -10655,7 +10387,7 @@
         <v>135</v>
       </c>
       <c r="C31" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A31,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BL</v>
       </c>
       <c r="D31" s="11"/>
@@ -10668,7 +10400,7 @@
         <v>136</v>
       </c>
       <c r="C32" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A32,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BM</v>
       </c>
       <c r="D32" s="11"/>
@@ -10681,7 +10413,7 @@
         <v>137</v>
       </c>
       <c r="C33" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A33,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BN</v>
       </c>
       <c r="D33" s="11"/>
@@ -10694,7 +10426,7 @@
         <v>138</v>
       </c>
       <c r="C34" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A34,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BO</v>
       </c>
       <c r="D34" s="11"/>
@@ -10707,7 +10439,7 @@
         <v>145</v>
       </c>
       <c r="C35" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A35,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BP</v>
       </c>
       <c r="D35" s="11"/>
@@ -10720,7 +10452,7 @@
         <v>146</v>
       </c>
       <c r="C36" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A36,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BQ</v>
       </c>
       <c r="D36" s="11"/>
@@ -10733,7 +10465,7 @@
         <v>147</v>
       </c>
       <c r="C37" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A37,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BR</v>
       </c>
       <c r="D37" s="11"/>
@@ -10746,7 +10478,7 @@
         <v>148</v>
       </c>
       <c r="C38" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A38,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BS</v>
       </c>
       <c r="D38" s="11"/>
@@ -10759,7 +10491,7 @@
         <v>149</v>
       </c>
       <c r="C39" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A39,[1]ИсходныеДанные!$A$1:$DD$1,0,1),4),1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BT</v>
       </c>
       <c r="D39" s="11"/>

--- a/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
+++ b/Reports/Отчет - ТипыПроектовФАКТДиаграмма.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC52374-9589-42E2-890D-12678F8F938F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAB8F9B-BDE1-4E71-8070-BF42D5DF08E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_ВозможныеСписки">Настройки!$A$1:$A$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ИсходныеДанные!$A$1:$CC$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ИсходныеДанные!$A$1:$CS$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Отчет!$C$8:$O$40</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="199">
   <si>
     <t>G</t>
   </si>
@@ -470,9 +470,6 @@
     <t>HourTo1FTE_Math</t>
   </si>
   <si>
-    <t>_________________</t>
-  </si>
-  <si>
     <t>Сумма часов по пользователю в месяце</t>
   </si>
   <si>
@@ -486,6 +483,156 @@
   </si>
   <si>
     <t>Часы приведёные к 1 FTE, но если FTE&lt;0, то не меняет</t>
+  </si>
+  <si>
+    <t>SumInCome01</t>
+  </si>
+  <si>
+    <t>Выручка в январе</t>
+  </si>
+  <si>
+    <t>SumInCome02</t>
+  </si>
+  <si>
+    <t>Выручка в феврале</t>
+  </si>
+  <si>
+    <t>SumInCome03</t>
+  </si>
+  <si>
+    <t>Выручка в марте</t>
+  </si>
+  <si>
+    <t>SumInCome04</t>
+  </si>
+  <si>
+    <t>Выручка в апреле</t>
+  </si>
+  <si>
+    <t>SumInCome05</t>
+  </si>
+  <si>
+    <t>Выручка в мае</t>
+  </si>
+  <si>
+    <t>SumInCome06</t>
+  </si>
+  <si>
+    <t>Выручка в июне</t>
+  </si>
+  <si>
+    <t>SumInCome07</t>
+  </si>
+  <si>
+    <t>Выручка в июле</t>
+  </si>
+  <si>
+    <t>SumInCome08</t>
+  </si>
+  <si>
+    <t>Выручка в августе</t>
+  </si>
+  <si>
+    <t>SumInCome09</t>
+  </si>
+  <si>
+    <t>Выручка в сентябре</t>
+  </si>
+  <si>
+    <t>SumInCome10</t>
+  </si>
+  <si>
+    <t>Выручка в октябре</t>
+  </si>
+  <si>
+    <t>SumInCome11</t>
+  </si>
+  <si>
+    <t>Выручка в ноябре</t>
+  </si>
+  <si>
+    <t>SumInCome12</t>
+  </si>
+  <si>
+    <t>Выручка в декабре</t>
+  </si>
+  <si>
+    <t>SumPodr01</t>
+  </si>
+  <si>
+    <t>Затраты на подрядчика в январе</t>
+  </si>
+  <si>
+    <t>SumPodr02</t>
+  </si>
+  <si>
+    <t>Затраты на подрядчика в феврале</t>
+  </si>
+  <si>
+    <t>SumPodr03</t>
+  </si>
+  <si>
+    <t>Затраты на подрядчика в марте</t>
+  </si>
+  <si>
+    <t>SumPodr04</t>
+  </si>
+  <si>
+    <t>Затраты на подрядчика в апреле</t>
+  </si>
+  <si>
+    <t>SumPodr05</t>
+  </si>
+  <si>
+    <t>Затраты на подрядчика в мае</t>
+  </si>
+  <si>
+    <t>SumPodr06</t>
+  </si>
+  <si>
+    <t>Затраты на подрядчика в июне</t>
+  </si>
+  <si>
+    <t>SumPodr07</t>
+  </si>
+  <si>
+    <t>Затраты на подрядчика в июле</t>
+  </si>
+  <si>
+    <t>SumPodr08</t>
+  </si>
+  <si>
+    <t>Затраты на подрядчика в августе</t>
+  </si>
+  <si>
+    <t>SumPodr09</t>
+  </si>
+  <si>
+    <t>Затраты на подрядчика в сентябре</t>
+  </si>
+  <si>
+    <t>SumPodr10</t>
+  </si>
+  <si>
+    <t>Затраты на подрядчика в октябре</t>
+  </si>
+  <si>
+    <t>SumPodr11</t>
+  </si>
+  <si>
+    <t>Затраты на подрядчика в ноябре</t>
+  </si>
+  <si>
+    <t>SumPodr12</t>
+  </si>
+  <si>
+    <t>Затраты на подрядчика в декабре</t>
+  </si>
+  <si>
+    <t>manager_email</t>
+  </si>
+  <si>
+    <t>Почтовый адрес менеджера проекта</t>
   </si>
 </sst>
 </file>
@@ -5303,12 +5450,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:CC1"/>
+  <dimension ref="A1:CS1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5317,8 +5464,8 @@
     <col min="2" max="2" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="11" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
@@ -5385,11 +5532,13 @@
     <col min="70" max="70" width="23" style="11" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="16" style="11" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="73" max="81" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="82" max="16384" width="9.140625" style="11"/>
+    <col min="73" max="84" width="18.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="85" max="96" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="98" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>61</v>
       </c>
@@ -5607,35 +5756,83 @@
         <v>143</v>
       </c>
       <c r="BU1" s="31" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BV1" s="31" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="BW1" s="31" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="BX1" s="31" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="BY1" s="31" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="BZ1" s="31" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="CA1" s="31" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="CB1" s="31" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="CC1" s="31" t="s">
-        <v>144</v>
+        <v>165</v>
+      </c>
+      <c r="CD1" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="CE1" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="CF1" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG1" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="CH1" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI1" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="CJ1" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="CK1" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL1" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="CM1" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="CN1" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="CO1" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="CP1" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="CQ1" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR1" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="CS1" s="31" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CC1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:CS1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
@@ -9935,11 +10132,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9955,7 +10150,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="11" t="str">
-        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A1,INDIRECT("ИсходныеДанные!$A$1:$DD$1"),0,1),4),1,"")</f>
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A1,INDIRECT("ИсходныеДанные!$A$1:$ZZ$1"),0,1),4),1,"")</f>
         <v>D</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -9970,7 +10165,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="11" t="str">
-        <f t="shared" ref="C2:C39" ca="1" si="0">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A2,INDIRECT("ИсходныеДанные!$A$1:$DD$1"),0,1),4),1,"")</f>
+        <f t="shared" ref="C2:C63" ca="1" si="0">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A2,INDIRECT("ИсходныеДанные!$A$1:$ZZ$1"),0,1),4),1,"")</f>
         <v>E</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -10436,7 +10631,7 @@
         <v>139</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -10449,7 +10644,7 @@
         <v>140</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -10462,7 +10657,7 @@
         <v>141</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -10475,7 +10670,7 @@
         <v>142</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -10488,13 +10683,338 @@
         <v>143</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BT</v>
       </c>
       <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BU</v>
+      </c>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BV</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BW</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BX</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BY</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BZ</v>
+      </c>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CA</v>
+      </c>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CB</v>
+      </c>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CC</v>
+      </c>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CD</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CE</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CF</v>
+      </c>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CG</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CH</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CI</v>
+      </c>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CJ</v>
+      </c>
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CK</v>
+      </c>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CL</v>
+      </c>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CM</v>
+      </c>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CN</v>
+      </c>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CO</v>
+      </c>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CP</v>
+      </c>
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CQ</v>
+      </c>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CR</v>
+      </c>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="11" t="str">
+        <f ca="1">SUBSTITUTE(ADDRESS(1,_xlfn.XMATCH(A64,INDIRECT("ИсходныеДанные!$A$1:$ZZ$1"),0,1),4),1,"")</f>
+        <v>CS</v>
+      </c>
+      <c r="D64" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
